--- a/scripts/Output.xlsx
+++ b/scripts/Output.xlsx
@@ -1,52 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T5" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T7" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T8" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T4" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T5" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T6" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T7" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T8" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T1" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T2" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T3" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T4" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T5" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T6" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T7" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T8" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T1" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T2" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T3" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T4" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T5" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T6" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T7" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T8" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Time - T1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Time - T2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Time - T3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Time - T4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Time - T5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Time - T6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Time - T7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Time - T8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TimeSpentIdle - T1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="TimeSpentIdle - T2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TimeSpentIdle - T3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TimeSpentIdle - T4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TimeSpentIdle - T5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="TimeSpentIdle - T6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="TimeSpentIdle - T7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="TimeSpentIdle - T8" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="TotalObjectTranslation - T1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="TotalObjectTranslation - T2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="TotalObjectTranslation - T3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="TotalObjectTranslation - T4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="TotalObjectTranslation - T5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="TotalObjectTranslation - T6" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="TotalObjectTranslation - T7" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="TotalObjectTranslation - T8" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="TotalMovement - T1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="TotalMovement - T2" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="TotalMovement - T3" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="TotalMovement - T4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="TotalMovement - T5" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="TotalMovement - T6" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="TotalMovement - T7" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="TotalMovement - T8" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="TotalTranslationMovement - T1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="TotalTranslationMovement - T2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="TotalTranslationMovement - T3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="TotalTranslationMovement - T4" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="TotalTranslationMovement - T5" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="TotalTranslationMovement - T6" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="TotalTranslationMovement - T7" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="TotalTranslationMovement - T8" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3125,7 +3125,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.011780608630152</v>
+        <v>1.07</v>
       </c>
       <c r="C7" t="n">
         <v>1.25</v>
@@ -3180,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9773944955850733</v>
+        <v>1.09</v>
       </c>
       <c r="C12" t="n">
         <v>1.17</v>
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.480979405663698</v>
+        <v>1.65</v>
       </c>
       <c r="C13" t="n">
         <v>1.4</v>
@@ -3202,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.058489489791939</v>
+        <v>1.38</v>
       </c>
       <c r="C14" t="n">
         <v>1.01</v>
@@ -3213,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9176055797563569</v>
+        <v>1.14</v>
       </c>
       <c r="C15" t="n">
         <v>1.51</v>
@@ -3246,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.270590413941487</v>
+        <v>1.72</v>
       </c>
       <c r="C18" t="n">
         <v>2.31</v>
@@ -3290,7 +3290,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8820430828479978</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>1.24</v>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.607980099379342</v>
+        <v>1.76</v>
       </c>
       <c r="C2" t="n">
         <v>1.87</v>
@@ -3403,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.335402561027947</v>
+        <v>1.45</v>
       </c>
       <c r="C3" t="n">
         <v>7.33</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.661202735606591</v>
+        <v>2.74</v>
       </c>
       <c r="C4" t="n">
         <v>2.12</v>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.30069900540735</v>
+        <v>10.42</v>
       </c>
       <c r="C5" t="n">
         <v>1.95</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.231015840677934</v>
+        <v>1.28</v>
       </c>
       <c r="C6" t="n">
         <v>1.91</v>
@@ -3447,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.680476123008</v>
+        <v>1.72</v>
       </c>
       <c r="C7" t="n">
         <v>1.41</v>
@@ -3458,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.534284909002932</v>
+        <v>2.86</v>
       </c>
       <c r="C8" t="n">
         <v>1.37</v>
@@ -3469,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.567322557739791</v>
+        <v>1.87</v>
       </c>
       <c r="C9" t="n">
         <v>1.85</v>
@@ -3480,7 +3480,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.382316895650198</v>
+        <v>1.46</v>
       </c>
       <c r="C10" t="n">
         <v>1.91</v>
@@ -3491,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.436836803537549</v>
+        <v>1.57</v>
       </c>
       <c r="C11" t="n">
         <v>3.04</v>
@@ -3502,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.492007223103497</v>
+        <v>2.59</v>
       </c>
       <c r="C12" t="n">
         <v>2.37</v>
@@ -3513,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.744133022449836</v>
+        <v>1.86</v>
       </c>
       <c r="C13" t="n">
         <v>1.38</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.991808223700264</v>
+        <v>2.45</v>
       </c>
       <c r="C14" t="n">
         <v>2.66</v>
@@ -3535,7 +3535,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.54434452114805</v>
+        <v>2.04</v>
       </c>
       <c r="C15" t="n">
         <v>24.35</v>
@@ -3546,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.421724305201258</v>
+        <v>1.49</v>
       </c>
       <c r="C16" t="n">
         <v>1.97</v>
@@ -3557,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.621974105835232</v>
+        <v>1.7</v>
       </c>
       <c r="C17" t="n">
         <v>1.66</v>
@@ -3568,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.394632568098135</v>
+        <v>1.7</v>
       </c>
       <c r="C18" t="n">
         <v>1.6</v>
@@ -3579,7 +3579,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.697557068260151</v>
+        <v>1.85</v>
       </c>
       <c r="C19" t="n">
         <v>1.5</v>
@@ -3590,7 +3590,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.234908903522847</v>
+        <v>1.34</v>
       </c>
       <c r="C20" t="n">
         <v>1.62</v>
@@ -3601,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.370583817210754</v>
+        <v>1.53</v>
       </c>
       <c r="C21" t="n">
         <v>1.68</v>
@@ -3612,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.241692393469494</v>
+        <v>1.4</v>
       </c>
       <c r="C22" t="n">
         <v>1.95</v>
@@ -3623,7 +3623,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.422743827960606</v>
+        <v>1.6</v>
       </c>
       <c r="C23" t="n">
         <v>1.8</v>
@@ -3634,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.372953021774598</v>
+        <v>1.46</v>
       </c>
       <c r="C24" t="n">
         <v>1.82</v>
@@ -3645,7 +3645,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.701881311960385</v>
+        <v>1.78</v>
       </c>
       <c r="C25" t="n">
         <v>1.37</v>
@@ -3656,7 +3656,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.373644786689776</v>
+        <v>1.47</v>
       </c>
       <c r="C26" t="n">
         <v>1.52</v>
@@ -3667,7 +3667,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.40089257261219</v>
+        <v>1.45</v>
       </c>
       <c r="C27" t="n">
         <v>1.5</v>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.356799283878017</v>
+        <v>5.05</v>
       </c>
       <c r="C2" t="n">
         <v>4.35</v>
@@ -3725,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.406890077475351</v>
+        <v>3.87</v>
       </c>
       <c r="C3" t="n">
         <v>5.82</v>
@@ -3736,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.791179395514219</v>
+        <v>5.22</v>
       </c>
       <c r="C4" t="n">
         <v>5.49</v>
@@ -3747,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.90486875579705</v>
+        <v>4.32</v>
       </c>
       <c r="C5" t="n">
         <v>6.13</v>
@@ -3758,7 +3758,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.377270839233049</v>
+        <v>4.91</v>
       </c>
       <c r="C6" t="n">
         <v>5.53</v>
@@ -3769,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.291200298284852</v>
+        <v>5.08</v>
       </c>
       <c r="C7" t="n">
         <v>4.85</v>
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.268409399080844</v>
+        <v>3.67</v>
       </c>
       <c r="C8" t="n">
         <v>3.98</v>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.326619906150987</v>
+        <v>3.72</v>
       </c>
       <c r="C9" t="n">
         <v>14.37</v>
@@ -3802,7 +3802,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3.817446790722825</v>
+        <v>4.37</v>
       </c>
       <c r="C10" t="n">
         <v>4.77</v>
@@ -3813,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.19299528210839</v>
+        <v>5.88</v>
       </c>
       <c r="C11" t="n">
         <v>4.49</v>
@@ -3824,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.733724846411334</v>
+        <v>9.19</v>
       </c>
       <c r="C12" t="n">
         <v>3.79</v>
@@ -3835,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.840052082980125</v>
+        <v>4.54</v>
       </c>
       <c r="C13" t="n">
         <v>3.78</v>
@@ -3846,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.272304998764771</v>
+        <v>5.62</v>
       </c>
       <c r="C14" t="n">
         <v>5.47</v>
@@ -3857,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.555980877338909</v>
+        <v>4.08</v>
       </c>
       <c r="C15" t="n">
         <v>5.37</v>
@@ -3868,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6.313984478916622</v>
+        <v>6.72</v>
       </c>
       <c r="C16" t="n">
         <v>4.35</v>
@@ -3879,7 +3879,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.061773011875479</v>
+        <v>4.46</v>
       </c>
       <c r="C17" t="n">
         <v>7.71</v>
@@ -3890,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3.55147856533022</v>
+        <v>3.92</v>
       </c>
       <c r="C18" t="n">
         <v>6.59</v>
@@ -3901,7 +3901,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4.136302696853798</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>4.31</v>
@@ -3912,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.26671088405448</v>
+        <v>3.58</v>
       </c>
       <c r="C20" t="n">
         <v>4.8</v>
@@ -3923,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3.692654871498283</v>
+        <v>4.15</v>
       </c>
       <c r="C21" t="n">
         <v>6.96</v>
@@ -3934,7 +3934,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4.464437254570838</v>
+        <v>5.32</v>
       </c>
       <c r="C22" t="n">
         <v>4.31</v>
@@ -3945,7 +3945,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.370823720993561</v>
+        <v>5.41</v>
       </c>
       <c r="C23" t="n">
         <v>4.56</v>
@@ -3956,7 +3956,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.567408022640528</v>
+        <v>4.48</v>
       </c>
       <c r="C24" t="n">
         <v>3.61</v>
@@ -3967,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>3.657157366042648</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>12.56</v>
@@ -3978,7 +3978,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5.030516872052017</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>4.17</v>
@@ -3989,7 +3989,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.701675296402968</v>
+        <v>4.08</v>
       </c>
       <c r="C27" t="n">
         <v>4.88</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.144980127123223</v>
+        <v>3.63</v>
       </c>
       <c r="C2" t="n">
         <v>8.779999999999999</v>
@@ -4369,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.068876015742571</v>
+        <v>3.46</v>
       </c>
       <c r="C3" t="n">
         <v>6.81</v>
@@ -4380,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.367565886512096</v>
+        <v>3.77</v>
       </c>
       <c r="C4" t="n">
         <v>5.28</v>
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.357647986314229</v>
+        <v>3.76</v>
       </c>
       <c r="C5" t="n">
         <v>5.19</v>
@@ -4402,7 +4402,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.150872894929277</v>
+        <v>3.56</v>
       </c>
       <c r="C6" t="n">
         <v>4.22</v>
@@ -4413,7 +4413,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3.158053197778656</v>
+        <v>3.55</v>
       </c>
       <c r="C7" t="n">
         <v>4.16</v>
@@ -4424,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6156603822815</v>
+        <v>4.02</v>
       </c>
       <c r="C8" t="n">
         <v>4.11</v>
@@ -4435,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.060359456011663</v>
+        <v>3.46</v>
       </c>
       <c r="C9" t="n">
         <v>4.46</v>
@@ -4446,7 +4446,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.053492321443325</v>
+        <v>4.539999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>3.99</v>
@@ -4457,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.419736831979912</v>
+        <v>3.84</v>
       </c>
       <c r="C11" t="n">
         <v>4.95</v>
@@ -4468,7 +4468,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.503041535580188</v>
+        <v>3.95</v>
       </c>
       <c r="C12" t="n">
         <v>5.37</v>
@@ -4479,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0886890422961</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
         <v>4.14</v>
@@ -4490,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.830469945058961</v>
+        <v>4.79</v>
       </c>
       <c r="C14" t="n">
         <v>6.28</v>
@@ -4501,7 +4501,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.140971187387748</v>
+        <v>3.55</v>
       </c>
       <c r="C15" t="n">
         <v>5.48</v>
@@ -4512,7 +4512,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.23579974658507</v>
+        <v>3.68</v>
       </c>
       <c r="C16" t="n">
         <v>4.46</v>
@@ -4523,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.216364407215078</v>
+        <v>3.8</v>
       </c>
       <c r="C17" t="n">
         <v>5.29</v>
@@ -4534,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.673692330481329</v>
+        <v>5.12</v>
       </c>
       <c r="C18" t="n">
         <v>6.26</v>
@@ -4545,7 +4545,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.162182790415506</v>
+        <v>3.58</v>
       </c>
       <c r="C19" t="n">
         <v>6.31</v>
@@ -4556,7 +4556,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.090064724241226</v>
+        <v>3.49</v>
       </c>
       <c r="C20" t="n">
         <v>13.12</v>
@@ -4567,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3.227444809752756</v>
+        <v>3.62</v>
       </c>
       <c r="C21" t="n">
         <v>8.220000000000001</v>
@@ -4578,7 +4578,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.050458981858304</v>
+        <v>3.45</v>
       </c>
       <c r="C22" t="n">
         <v>4.15</v>
@@ -4589,7 +4589,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.198309183468983</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>3.88</v>
@@ -4600,7 +4600,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.078782226790326</v>
+        <v>3.47</v>
       </c>
       <c r="C24" t="n">
         <v>3.37</v>
@@ -4611,7 +4611,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>3.210062304691297</v>
+        <v>4.03</v>
       </c>
       <c r="C25" t="n">
         <v>5.03</v>
@@ -4622,7 +4622,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3.22158346159152</v>
+        <v>3.64</v>
       </c>
       <c r="C26" t="n">
         <v>4.6</v>
@@ -4633,7 +4633,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.23736003558455</v>
+        <v>3.63</v>
       </c>
       <c r="C27" t="n">
         <v>3.31</v>
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57.8669249226188</v>
+        <v>70.32000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>80.59999999999999</v>
@@ -4691,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>51.43173339486042</v>
+        <v>64.92</v>
       </c>
       <c r="C3" t="n">
         <v>60.83</v>
@@ -4702,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.84109538583681</v>
+        <v>46.59</v>
       </c>
       <c r="C4" t="n">
         <v>32.4</v>
@@ -4713,7 +4713,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>120.7905695822319</v>
+        <v>139.53</v>
       </c>
       <c r="C5" t="n">
         <v>39.17</v>
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>51.18894118850282</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>44.57</v>
@@ -4735,7 +4735,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.71424797076034</v>
+        <v>48.51000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>38.43</v>
@@ -4746,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49.34736568450235</v>
+        <v>62.39</v>
       </c>
       <c r="C8" t="n">
         <v>29.79</v>
@@ -4757,7 +4757,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.11101805539585</v>
+        <v>35.65</v>
       </c>
       <c r="C9" t="n">
         <v>36.03</v>
@@ -4768,7 +4768,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>180.7061672992928</v>
+        <v>223.53</v>
       </c>
       <c r="C10" t="n">
         <v>46.92</v>
@@ -4779,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.93768240574941</v>
+        <v>59.95</v>
       </c>
       <c r="C11" t="n">
         <v>42.71</v>
@@ -4790,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.44212870349247</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>88.26000000000001</v>
@@ -4801,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>67.2030988868817</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>34.62</v>
@@ -4812,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>50.33955105083874</v>
+        <v>62.72</v>
       </c>
       <c r="C14" t="n">
         <v>42.31</v>
@@ -4823,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.69351353195161</v>
+        <v>40.26</v>
       </c>
       <c r="C15" t="n">
         <v>1980.85</v>
@@ -4834,7 +4834,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.63648721474057</v>
+        <v>37.02</v>
       </c>
       <c r="C16" t="n">
         <v>35.38</v>
@@ -4845,7 +4845,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>77.47370779819435</v>
+        <v>97.48</v>
       </c>
       <c r="C17" t="n">
         <v>33.32</v>
@@ -4856,7 +4856,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>36.67301187521963</v>
+        <v>47.7</v>
       </c>
       <c r="C18" t="n">
         <v>68.12</v>
@@ -4867,7 +4867,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>29.10527100028447</v>
+        <v>38.56</v>
       </c>
       <c r="C19" t="n">
         <v>34.55</v>
@@ -4878,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>63.67006360920335</v>
+        <v>85.34</v>
       </c>
       <c r="C20" t="n">
         <v>33.15</v>
@@ -4889,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>36.56242470077716</v>
+        <v>50.53</v>
       </c>
       <c r="C21" t="n">
         <v>29.59</v>
@@ -4900,7 +4900,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>131.00757230023</v>
+        <v>148.52</v>
       </c>
       <c r="C22" t="n">
         <v>30.76</v>
@@ -4911,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>40.03784709496753</v>
+        <v>48.5</v>
       </c>
       <c r="C23" t="n">
         <v>43.57</v>
@@ -4922,7 +4922,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>32.70926015672015</v>
+        <v>42.75</v>
       </c>
       <c r="C24" t="n">
         <v>29.21</v>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>105.9827278380775</v>
+        <v>125.16</v>
       </c>
       <c r="C25" t="n">
         <v>31.79</v>
@@ -4944,7 +4944,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>41.31237223883421</v>
+        <v>51.91</v>
       </c>
       <c r="C26" t="n">
         <v>29.52</v>
@@ -4955,7 +4955,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>38.19227670616142</v>
+        <v>51.18</v>
       </c>
       <c r="C27" t="n">
         <v>30.82</v>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73.78734918670003</v>
+        <v>97.33000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>93.34</v>
@@ -5013,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44.6173116626271</v>
+        <v>63.09</v>
       </c>
       <c r="C3" t="n">
         <v>79.73999999999999</v>
@@ -5024,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>49.38387692354662</v>
+        <v>68.95</v>
       </c>
       <c r="C4" t="n">
         <v>75.95</v>
@@ -5035,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>55.2981753767699</v>
+        <v>76.08</v>
       </c>
       <c r="C5" t="n">
         <v>321.5</v>
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>52.2598430919956</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>178.63</v>
@@ -5057,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.85043297794146</v>
+        <v>72.72</v>
       </c>
       <c r="C7" t="n">
         <v>71.42</v>
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67.43760746052607</v>
+        <v>89.23</v>
       </c>
       <c r="C8" t="n">
         <v>58.79</v>
@@ -5079,7 +5079,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62.88367435193334</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>65.98999999999999</v>
@@ -5090,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>77.93401118895396</v>
+        <v>105.71</v>
       </c>
       <c r="C10" t="n">
         <v>70.88</v>
@@ -5101,7 +5101,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.76051060025379</v>
+        <v>74.25</v>
       </c>
       <c r="C11" t="n">
         <v>59.39</v>
@@ -5112,7 +5112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>48.09496023493522</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>57.61</v>
@@ -5123,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>65.05290923548307</v>
+        <v>89.22</v>
       </c>
       <c r="C13" t="n">
         <v>81.26000000000001</v>
@@ -5134,7 +5134,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>83.77587540575149</v>
+        <v>112.75</v>
       </c>
       <c r="C14" t="n">
         <v>145.77</v>
@@ -5145,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>65.56473594852648</v>
+        <v>89.84</v>
       </c>
       <c r="C15" t="n">
         <v>69.94</v>
@@ -5156,7 +5156,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>59.91125770671152</v>
+        <v>81.74000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>957.23</v>
@@ -5167,7 +5167,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>50.39415144637321</v>
+        <v>70.83</v>
       </c>
       <c r="C17" t="n">
         <v>89.51000000000001</v>
@@ -5178,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>100.3637848030852</v>
+        <v>128.95</v>
       </c>
       <c r="C18" t="n">
         <v>133.37</v>
@@ -5189,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>81.87333204407892</v>
+        <v>109.59</v>
       </c>
       <c r="C19" t="n">
         <v>50.33</v>
@@ -5200,7 +5200,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>54.39209501388966</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
         <v>97.33</v>
@@ -5211,7 +5211,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>55.35606290190804</v>
+        <v>75.42999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>58.25</v>
@@ -5222,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>64.98541682562328</v>
+        <v>86.38</v>
       </c>
       <c r="C22" t="n">
         <v>82.12</v>
@@ -5233,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>57.31375053161327</v>
+        <v>79.34</v>
       </c>
       <c r="C23" t="n">
         <v>66.98999999999999</v>
@@ -5244,7 +5244,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>49.97503076537323</v>
+        <v>69.05</v>
       </c>
       <c r="C24" t="n">
         <v>67.3</v>
@@ -5255,7 +5255,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>44.5322175508923</v>
+        <v>62.68</v>
       </c>
       <c r="C25" t="n">
         <v>96.37</v>
@@ -5266,7 +5266,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>49.44146943609181</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>53.6</v>
@@ -5277,7 +5277,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>49.15847129437611</v>
+        <v>67.75</v>
       </c>
       <c r="C27" t="n">
         <v>56.65</v>
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>47.01758819846037</v>
+        <v>49.64</v>
       </c>
       <c r="C4" t="n">
         <v>66.34</v>
@@ -5434,7 +5434,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.94177990789303</v>
+        <v>52.37</v>
       </c>
       <c r="C12" t="n">
         <v>109.88</v>
@@ -5456,7 +5456,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>60.38280053127711</v>
+        <v>62.34</v>
       </c>
       <c r="C14" t="n">
         <v>145.11</v>
@@ -5467,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>167.3269529992105</v>
+        <v>189.22</v>
       </c>
       <c r="C15" t="n">
         <v>65.64</v>
@@ -5478,7 +5478,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>62.57002876777347</v>
+        <v>62.63</v>
       </c>
       <c r="C16" t="n">
         <v>66.84</v>
@@ -5522,7 +5522,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>64.23924423590302</v>
+        <v>68.72999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>62.92</v>
@@ -5555,7 +5555,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>96.32954479286197</v>
+        <v>102.18</v>
       </c>
       <c r="C23" t="n">
         <v>55.46</v>
@@ -5588,7 +5588,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>52.14572082155927</v>
+        <v>54.5</v>
       </c>
       <c r="C26" t="n">
         <v>58.45</v>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>131.9648441820775</v>
+        <v>139.11</v>
       </c>
       <c r="C2" t="n">
         <v>216.18</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>127.1808869288149</v>
+        <v>143.54</v>
       </c>
       <c r="C3" t="n">
         <v>185.57</v>
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>108.4868051884652</v>
+        <v>149.57</v>
       </c>
       <c r="C4" t="n">
         <v>232.56</v>
@@ -5679,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>155.4154718810196</v>
+        <v>164.23</v>
       </c>
       <c r="C5" t="n">
         <v>429.98</v>
@@ -5690,7 +5690,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>102.6090741601346</v>
+        <v>124.89</v>
       </c>
       <c r="C6" t="n">
         <v>251.34</v>
@@ -5701,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>105.9476191332302</v>
+        <v>121.02</v>
       </c>
       <c r="C7" t="n">
         <v>196.19</v>
@@ -5712,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>108.9654202029249</v>
+        <v>130.66</v>
       </c>
       <c r="C8" t="n">
         <v>112.02</v>
@@ -5723,7 +5723,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>100.8459126588678</v>
+        <v>116.89</v>
       </c>
       <c r="C9" t="n">
         <v>183.07</v>
@@ -5734,7 +5734,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>258.3178307821588</v>
+        <v>268.47</v>
       </c>
       <c r="C10" t="n">
         <v>176.8</v>
@@ -5745,7 +5745,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>206.8277892353927</v>
+        <v>277.68</v>
       </c>
       <c r="C11" t="n">
         <v>257.19</v>
@@ -5756,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>94.89680500417282</v>
+        <v>103.74</v>
       </c>
       <c r="C12" t="n">
         <v>189.41</v>
@@ -5767,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>111.3795479430582</v>
+        <v>140.07</v>
       </c>
       <c r="C13" t="n">
         <v>99.56</v>
@@ -5778,7 +5778,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>117.8718363308216</v>
+        <v>126</v>
       </c>
       <c r="C14" t="n">
         <v>203.93</v>
@@ -5789,7 +5789,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>131.9556535355723</v>
+        <v>154.59</v>
       </c>
       <c r="C15" t="n">
         <v>350.55</v>
@@ -5800,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>179.9526273773184</v>
+        <v>187.21</v>
       </c>
       <c r="C16" t="n">
         <v>137.42</v>
@@ -5811,7 +5811,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>128.6562124423069</v>
+        <v>151.26</v>
       </c>
       <c r="C17" t="n">
         <v>98.03</v>
@@ -5822,7 +5822,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>153.0750551200293</v>
+        <v>169.35</v>
       </c>
       <c r="C18" t="n">
         <v>850.9</v>
@@ -5833,7 +5833,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>105.9746597069318</v>
+        <v>114.17</v>
       </c>
       <c r="C19" t="n">
         <v>161.6</v>
@@ -5844,7 +5844,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>97.26912613979833</v>
+        <v>105.87</v>
       </c>
       <c r="C20" t="n">
         <v>191.41</v>
@@ -5855,7 +5855,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>111.3611067653335</v>
+        <v>120.51</v>
       </c>
       <c r="C21" t="n">
         <v>144.88</v>
@@ -5866,7 +5866,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>94.76141408822475</v>
+        <v>103.64</v>
       </c>
       <c r="C22" t="n">
         <v>112.88</v>
@@ -5877,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>123.620467560999</v>
+        <v>138.04</v>
       </c>
       <c r="C23" t="n">
         <v>160.6</v>
@@ -5888,7 +5888,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>87.43350216021317</v>
+        <v>97.45</v>
       </c>
       <c r="C24" t="n">
         <v>140.35</v>
@@ -5899,7 +5899,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>81.94800119588029</v>
+        <v>94.36999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>213.86</v>
@@ -5910,7 +5910,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>129.4658395098877</v>
+        <v>146.26</v>
       </c>
       <c r="C26" t="n">
         <v>397.14</v>
@@ -5921,7 +5921,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>204.8641054455368</v>
+        <v>233.03</v>
       </c>
       <c r="C27" t="n">
         <v>126.55</v>

--- a/scripts/Output.xlsx
+++ b/scripts/Output.xlsx
@@ -1,52 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Time - T1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Time - T2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Time - T3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Time - T4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Time - T5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Time - T6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Time - T7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Time - T8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="TimeSpentIdle - T1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="TimeSpentIdle - T2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TimeSpentIdle - T3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TimeSpentIdle - T4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TimeSpentIdle - T5" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="TimeSpentIdle - T6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="TimeSpentIdle - T7" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="TimeSpentIdle - T8" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="TotalObjectTranslation - T1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="TotalObjectTranslation - T2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="TotalObjectTranslation - T3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="TotalObjectTranslation - T4" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="TotalObjectTranslation - T5" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="TotalObjectTranslation - T6" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="TotalObjectTranslation - T7" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="TotalObjectTranslation - T8" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="TotalMovement - T1" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="TotalMovement - T2" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="TotalMovement - T3" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="TotalMovement - T4" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="TotalMovement - T5" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="TotalMovement - T6" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="TotalMovement - T7" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="TotalMovement - T8" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="TotalTranslationMovement - T1" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="TotalTranslationMovement - T2" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="TotalTranslationMovement - T3" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="TotalTranslationMovement - T4" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="TotalTranslationMovement - T5" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="TotalTranslationMovement - T6" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="TotalTranslationMovement - T7" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="TotalTranslationMovement - T8" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time - T8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimeSpentIdle - T8" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T6" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T7" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ActiveTime - T8" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T2" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T3" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T5" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T6" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T7" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalObjectTranslation - T8" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T4" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T5" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T6" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T7" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalMovement - T8" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T1" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T2" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T3" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T4" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T5" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T6" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T7" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalTranslationMovement - T8" sheetId="48" state="visible" r:id="rId48"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3070,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.39</v>
+        <v>6.41</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="3">
@@ -3081,10 +3089,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.09</v>
+        <v>4.12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.71</v>
+        <v>5.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3092,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>6.620000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>1.83</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3103,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.16</v>
+        <v>9.420000000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>2.35</v>
+        <v>4.449999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3114,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.03</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.31</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3125,10 +3133,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.07</v>
+        <v>10.15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.25</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="8">
@@ -3136,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.1</v>
+        <v>6.499999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="9">
@@ -3147,10 +3155,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.88</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1.25</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="10">
@@ -3158,10 +3166,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.85</v>
+        <v>4.22</v>
       </c>
       <c r="C10" t="n">
-        <v>1.32</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="11">
@@ -3169,10 +3177,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.25</v>
+        <v>3.760000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>4.239999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3180,10 +3188,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.09</v>
+        <v>15.78</v>
       </c>
       <c r="C12" t="n">
-        <v>1.17</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="13">
@@ -3191,10 +3199,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.65</v>
+        <v>19.86</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4</v>
+        <v>7.960000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3202,10 +3210,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.38</v>
+        <v>16.9</v>
       </c>
       <c r="C14" t="n">
-        <v>1.01</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="15">
@@ -3213,10 +3221,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.14</v>
+        <v>13.44</v>
       </c>
       <c r="C15" t="n">
-        <v>1.51</v>
+        <v>6.650000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3224,10 +3232,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.86</v>
+        <v>9.49</v>
       </c>
       <c r="C16" t="n">
-        <v>1.23</v>
+        <v>9.670000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -3235,10 +3243,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.93</v>
+        <v>4.52</v>
       </c>
       <c r="C17" t="n">
-        <v>1.34</v>
+        <v>3.640000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3246,10 +3254,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.72</v>
+        <v>16.06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.31</v>
+        <v>5.260000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3257,10 +3265,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.86</v>
+        <v>6.31</v>
       </c>
       <c r="C19" t="n">
-        <v>1.69</v>
+        <v>8.899999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3268,10 +3276,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.88</v>
+        <v>6.96</v>
       </c>
       <c r="C20" t="n">
-        <v>1.17</v>
+        <v>6.539999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3279,10 +3287,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.06</v>
+        <v>7.549999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.16</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22">
@@ -3290,10 +3298,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9399999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="C22" t="n">
-        <v>1.24</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="23">
@@ -3301,10 +3309,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.89</v>
+        <v>4.23</v>
       </c>
       <c r="C23" t="n">
-        <v>1.22</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="24">
@@ -3312,10 +3320,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.96</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.09</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3323,10 +3331,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.92</v>
+        <v>4.55</v>
       </c>
       <c r="C25" t="n">
-        <v>2.12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3334,10 +3342,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.99</v>
+        <v>10.7</v>
       </c>
       <c r="C26" t="n">
-        <v>3.36</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="27">
@@ -3345,10 +3353,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.95</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="C27" t="n">
-        <v>1.16</v>
+        <v>3.58</v>
       </c>
     </row>
   </sheetData>
@@ -3392,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.76</v>
+        <v>34.23</v>
       </c>
       <c r="C2" t="n">
-        <v>1.87</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="3">
@@ -3403,10 +3411,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.45</v>
+        <v>13.74</v>
       </c>
       <c r="C3" t="n">
-        <v>7.33</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="4">
@@ -3414,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.74</v>
+        <v>23.66</v>
       </c>
       <c r="C4" t="n">
-        <v>2.12</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="5">
@@ -3425,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.42</v>
+        <v>23.12</v>
       </c>
       <c r="C5" t="n">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="6">
@@ -3436,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.28</v>
+        <v>10.51</v>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="7">
@@ -3447,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.72</v>
+        <v>22.76</v>
       </c>
       <c r="C7" t="n">
-        <v>1.41</v>
+        <v>3.779999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3458,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.86</v>
+        <v>31.03</v>
       </c>
       <c r="C8" t="n">
-        <v>1.37</v>
+        <v>4.149999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3469,10 +3477,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.87</v>
+        <v>27.27</v>
       </c>
       <c r="C9" t="n">
-        <v>1.85</v>
+        <v>6.390000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3480,10 +3488,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.46</v>
+        <v>17.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.91</v>
+        <v>7.659999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3491,10 +3499,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.57</v>
+        <v>16.19</v>
       </c>
       <c r="C11" t="n">
-        <v>3.04</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="12">
@@ -3502,10 +3510,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.59</v>
+        <v>32.73999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2.37</v>
+        <v>4.299999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3513,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.86</v>
+        <v>39.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
@@ -3524,10 +3532,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.45</v>
+        <v>46.98</v>
       </c>
       <c r="C14" t="n">
-        <v>2.66</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="15">
@@ -3535,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.04</v>
+        <v>38.87</v>
       </c>
       <c r="C15" t="n">
-        <v>24.35</v>
+        <v>46.95999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3546,10 +3554,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.49</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.97</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="17">
@@ -3557,10 +3565,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.7</v>
+        <v>25.58</v>
       </c>
       <c r="C17" t="n">
-        <v>1.66</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="18">
@@ -3568,10 +3576,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.7</v>
+        <v>32.9</v>
       </c>
       <c r="C18" t="n">
-        <v>1.6</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3579,10 +3587,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.85</v>
+        <v>17.46</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="20">
@@ -3590,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.34</v>
+        <v>14.44</v>
       </c>
       <c r="C20" t="n">
-        <v>1.62</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3601,10 +3609,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.53</v>
+        <v>22.67</v>
       </c>
       <c r="C21" t="n">
-        <v>1.68</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="22">
@@ -3612,10 +3620,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.4</v>
+        <v>27.24</v>
       </c>
       <c r="C22" t="n">
-        <v>1.95</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="23">
@@ -3623,10 +3631,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.6</v>
+        <v>26.42</v>
       </c>
       <c r="C23" t="n">
-        <v>1.8</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="24">
@@ -3634,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.46</v>
+        <v>20.67</v>
       </c>
       <c r="C24" t="n">
-        <v>1.82</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3645,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.78</v>
+        <v>17.7</v>
       </c>
       <c r="C25" t="n">
-        <v>1.37</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="26">
@@ -3656,10 +3664,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.47</v>
+        <v>20.72</v>
       </c>
       <c r="C26" t="n">
-        <v>1.52</v>
+        <v>6.879999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3667,10 +3675,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.45</v>
+        <v>14.69</v>
       </c>
       <c r="C27" t="n">
-        <v>1.5</v>
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>
@@ -3714,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05</v>
+        <v>41.37</v>
       </c>
       <c r="C2" t="n">
-        <v>4.35</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="3">
@@ -3725,10 +3733,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.87</v>
+        <v>7.68</v>
       </c>
       <c r="C3" t="n">
-        <v>5.82</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4">
@@ -3736,10 +3744,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.22</v>
+        <v>9.329999999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>5.49</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="5">
@@ -3747,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.32</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>6.13</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="6">
@@ -3758,10 +3766,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.91</v>
+        <v>13.96</v>
       </c>
       <c r="C6" t="n">
-        <v>5.53</v>
+        <v>5.959999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3769,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.08</v>
+        <v>19.2</v>
       </c>
       <c r="C7" t="n">
-        <v>4.85</v>
+        <v>5.909999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3780,10 +3788,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.67</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>3.98</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="9">
@@ -3791,10 +3799,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.72</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>14.37</v>
+        <v>37.29</v>
       </c>
     </row>
     <row r="10">
@@ -3802,10 +3810,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.37</v>
+        <v>7.78</v>
       </c>
       <c r="C10" t="n">
-        <v>4.77</v>
+        <v>5.279999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3813,10 +3821,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.88</v>
+        <v>10.05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.49</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="12">
@@ -3824,10 +3832,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.19</v>
+        <v>70.67</v>
       </c>
       <c r="C12" t="n">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="13">
@@ -3835,10 +3843,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4.54</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3.78</v>
+        <v>3.659999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3846,10 +3854,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.62</v>
+        <v>10.27</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="15">
@@ -3857,10 +3865,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.08</v>
+        <v>16.52</v>
       </c>
       <c r="C15" t="n">
-        <v>5.37</v>
+        <v>8.940000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3868,10 +3876,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6.72</v>
+        <v>27.56</v>
       </c>
       <c r="C16" t="n">
-        <v>4.35</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="17">
@@ -3879,10 +3887,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.46</v>
+        <v>9.42</v>
       </c>
       <c r="C17" t="n">
-        <v>7.71</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="18">
@@ -3890,10 +3898,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3.92</v>
+        <v>5.65</v>
       </c>
       <c r="C18" t="n">
-        <v>6.59</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="19">
@@ -3901,10 +3909,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5.220000000000001</v>
+        <v>8.530000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>4.31</v>
+        <v>8.149999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3912,10 +3920,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.58</v>
+        <v>6.49</v>
       </c>
       <c r="C20" t="n">
-        <v>4.8</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="21">
@@ -3923,10 +3931,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.15</v>
+        <v>8.92</v>
       </c>
       <c r="C21" t="n">
-        <v>6.96</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="22">
@@ -3934,10 +3942,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5.32</v>
+        <v>13.68</v>
       </c>
       <c r="C22" t="n">
-        <v>4.31</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="23">
@@ -3945,10 +3953,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5.41</v>
+        <v>10.59</v>
       </c>
       <c r="C23" t="n">
-        <v>4.56</v>
+        <v>6.399999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3956,10 +3964,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4.48</v>
+        <v>13.51</v>
       </c>
       <c r="C24" t="n">
-        <v>3.61</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="25">
@@ -3967,10 +3975,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.140000000000001</v>
+        <v>11.54</v>
       </c>
       <c r="C25" t="n">
-        <v>12.56</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3978,10 +3986,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5.890000000000001</v>
+        <v>21.15</v>
       </c>
       <c r="C26" t="n">
-        <v>4.17</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="27">
@@ -3989,10 +3997,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.08</v>
+        <v>6.48</v>
       </c>
       <c r="C27" t="n">
-        <v>4.88</v>
+        <v>6.540000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4358,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.63</v>
+        <v>33.14</v>
       </c>
       <c r="C2" t="n">
-        <v>8.779999999999999</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="3">
@@ -4369,10 +4377,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.46</v>
+        <v>15.41</v>
       </c>
       <c r="C3" t="n">
-        <v>6.81</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="4">
@@ -4380,10 +4388,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.77</v>
+        <v>17.82</v>
       </c>
       <c r="C4" t="n">
-        <v>5.28</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="5">
@@ -4391,10 +4399,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.76</v>
+        <v>32.91</v>
       </c>
       <c r="C5" t="n">
-        <v>5.19</v>
+        <v>4.239999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4402,10 +4410,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.56</v>
+        <v>21.15</v>
       </c>
       <c r="C6" t="n">
-        <v>4.22</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="7">
@@ -4413,10 +4421,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3.55</v>
+        <v>28.62</v>
       </c>
       <c r="C7" t="n">
-        <v>4.16</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="8">
@@ -4424,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4.02</v>
+        <v>30.59</v>
       </c>
       <c r="C8" t="n">
-        <v>4.11</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="9">
@@ -4435,10 +4443,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.46</v>
+        <v>14.15</v>
       </c>
       <c r="C9" t="n">
-        <v>4.46</v>
+        <v>5.470000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4446,10 +4454,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.539999999999999</v>
+        <v>28.01</v>
       </c>
       <c r="C10" t="n">
-        <v>3.99</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="11">
@@ -4457,10 +4465,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.84</v>
+        <v>21.64</v>
       </c>
       <c r="C11" t="n">
-        <v>4.95</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="12">
@@ -4468,10 +4476,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.95</v>
+        <v>29.45</v>
       </c>
       <c r="C12" t="n">
-        <v>5.37</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="13">
@@ -4479,10 +4487,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.48</v>
+        <v>18.72</v>
       </c>
       <c r="C13" t="n">
-        <v>4.14</v>
+        <v>6.540000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4490,10 +4498,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.79</v>
+        <v>52.29</v>
       </c>
       <c r="C14" t="n">
-        <v>6.28</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="15">
@@ -4501,10 +4509,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.55</v>
+        <v>55.73</v>
       </c>
       <c r="C15" t="n">
-        <v>5.48</v>
+        <v>37.59</v>
       </c>
     </row>
     <row r="16">
@@ -4512,10 +4520,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.68</v>
+        <v>38.65</v>
       </c>
       <c r="C16" t="n">
-        <v>4.46</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="17">
@@ -4523,10 +4531,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.8</v>
+        <v>19.49</v>
       </c>
       <c r="C17" t="n">
-        <v>5.29</v>
+        <v>5.200000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -4534,10 +4542,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5.12</v>
+        <v>23.57</v>
       </c>
       <c r="C18" t="n">
-        <v>6.26</v>
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -4545,10 +4553,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.58</v>
+        <v>24.22</v>
       </c>
       <c r="C19" t="n">
-        <v>6.31</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -4556,10 +4564,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.49</v>
+        <v>33.53</v>
       </c>
       <c r="C20" t="n">
-        <v>13.12</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="21">
@@ -4567,10 +4575,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3.62</v>
+        <v>35.16</v>
       </c>
       <c r="C21" t="n">
-        <v>8.220000000000001</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="22">
@@ -4578,10 +4586,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.45</v>
+        <v>25.28</v>
       </c>
       <c r="C22" t="n">
-        <v>4.15</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="23">
@@ -4589,10 +4597,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5.100000000000001</v>
+        <v>51.28999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>3.88</v>
+        <v>5.000000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -4600,10 +4608,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.47</v>
+        <v>28.75</v>
       </c>
       <c r="C24" t="n">
-        <v>3.37</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="25">
@@ -4611,10 +4619,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.03</v>
+        <v>19.52</v>
       </c>
       <c r="C25" t="n">
-        <v>5.03</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -4622,10 +4630,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3.64</v>
+        <v>25.73</v>
       </c>
       <c r="C26" t="n">
-        <v>4.6</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="27">
@@ -4633,10 +4641,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.63</v>
+        <v>11.12</v>
       </c>
       <c r="C27" t="n">
-        <v>3.31</v>
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>
@@ -4680,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70.32000000000001</v>
+        <v>36.46</v>
       </c>
       <c r="C2" t="n">
-        <v>80.59999999999999</v>
+        <v>93.72999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4691,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64.92</v>
+        <v>8.569999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>60.83</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="4">
@@ -4702,10 +4710,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46.59</v>
+        <v>28.99</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="5">
@@ -4713,10 +4721,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>139.53</v>
+        <v>15.11</v>
       </c>
       <c r="C5" t="n">
-        <v>39.17</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="6">
@@ -4724,10 +4732,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67.65000000000001</v>
+        <v>17.05</v>
       </c>
       <c r="C6" t="n">
-        <v>44.57</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="7">
@@ -4735,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>48.51000000000001</v>
+        <v>26.94</v>
       </c>
       <c r="C7" t="n">
-        <v>38.43</v>
+        <v>9.319999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4746,10 +4754,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62.39</v>
+        <v>11.89</v>
       </c>
       <c r="C8" t="n">
-        <v>29.79</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="9">
@@ -4757,10 +4765,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35.65</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>36.03</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="10">
@@ -4768,10 +4776,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>223.53</v>
+        <v>17.21</v>
       </c>
       <c r="C10" t="n">
-        <v>46.92</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="11">
@@ -4779,10 +4787,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>59.95</v>
+        <v>32.15000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>42.71</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="12">
@@ -4790,10 +4798,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>9.57</v>
       </c>
       <c r="C12" t="n">
-        <v>88.26000000000001</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="13">
@@ -4801,10 +4809,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>83.93000000000001</v>
+        <v>27.25</v>
       </c>
       <c r="C13" t="n">
-        <v>34.62</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="14">
@@ -4812,10 +4820,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>62.72</v>
+        <v>19.07</v>
       </c>
       <c r="C14" t="n">
-        <v>42.31</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="15">
@@ -4823,10 +4831,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.26</v>
+        <v>20.91</v>
       </c>
       <c r="C15" t="n">
-        <v>1980.85</v>
+        <v>52.11</v>
       </c>
     </row>
     <row r="16">
@@ -4834,10 +4842,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.02</v>
+        <v>15.64</v>
       </c>
       <c r="C16" t="n">
-        <v>35.38</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="17">
@@ -4845,10 +4853,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>97.48</v>
+        <v>21.49</v>
       </c>
       <c r="C17" t="n">
-        <v>33.32</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -4856,10 +4864,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>47.7</v>
+        <v>17.71</v>
       </c>
       <c r="C18" t="n">
-        <v>68.12</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
@@ -4867,10 +4875,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>38.56</v>
+        <v>11.94</v>
       </c>
       <c r="C19" t="n">
-        <v>34.55</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="20">
@@ -4878,10 +4886,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>85.34</v>
+        <v>28.74</v>
       </c>
       <c r="C20" t="n">
-        <v>33.15</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="21">
@@ -4889,10 +4897,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>50.53</v>
+        <v>21.11</v>
       </c>
       <c r="C21" t="n">
-        <v>29.59</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="22">
@@ -4900,10 +4908,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>148.52</v>
+        <v>23.15</v>
       </c>
       <c r="C22" t="n">
-        <v>30.76</v>
+        <v>6.509999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -4911,10 +4919,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>48.5</v>
+        <v>10.65</v>
       </c>
       <c r="C23" t="n">
-        <v>43.57</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="24">
@@ -4922,10 +4930,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>42.75</v>
+        <v>18.11</v>
       </c>
       <c r="C24" t="n">
-        <v>29.21</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="25">
@@ -4933,10 +4941,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>125.16</v>
+        <v>18.19</v>
       </c>
       <c r="C25" t="n">
-        <v>31.79</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="26">
@@ -4944,10 +4952,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>51.91</v>
+        <v>15.66</v>
       </c>
       <c r="C26" t="n">
-        <v>29.52</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="27">
@@ -4955,10 +4963,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>51.18</v>
+        <v>20.76</v>
       </c>
       <c r="C27" t="n">
-        <v>30.82</v>
+        <v>12.43</v>
       </c>
     </row>
   </sheetData>
@@ -5002,10 +5010,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>97.33000000000001</v>
+        <v>28.29</v>
       </c>
       <c r="C2" t="n">
-        <v>93.34</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="3">
@@ -5013,10 +5021,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63.09</v>
+        <v>18.57</v>
       </c>
       <c r="C3" t="n">
-        <v>79.73999999999999</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="4">
@@ -5024,10 +5032,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>68.95</v>
+        <v>35.65000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>75.95</v>
+        <v>7.890000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5035,10 +5043,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>76.08</v>
+        <v>23.71</v>
       </c>
       <c r="C5" t="n">
-        <v>321.5</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="6">
@@ -5046,10 +5054,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>71.59999999999999</v>
+        <v>16.08</v>
       </c>
       <c r="C6" t="n">
-        <v>178.63</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="7">
@@ -5057,10 +5065,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>72.72</v>
+        <v>30.51</v>
       </c>
       <c r="C7" t="n">
-        <v>71.42</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="8">
@@ -5068,10 +5076,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>89.23</v>
+        <v>20.17</v>
       </c>
       <c r="C8" t="n">
-        <v>58.79</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="9">
@@ -5079,10 +5087,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>88.93000000000001</v>
+        <v>38.3</v>
       </c>
       <c r="C9" t="n">
-        <v>65.98999999999999</v>
+        <v>7.200000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5090,10 +5098,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>105.71</v>
+        <v>26.55</v>
       </c>
       <c r="C10" t="n">
-        <v>70.88</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5101,10 +5109,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>74.25</v>
+        <v>14.03</v>
       </c>
       <c r="C11" t="n">
-        <v>59.39</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5120,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>67.90000000000001</v>
+        <v>24.84</v>
       </c>
       <c r="C12" t="n">
-        <v>57.61</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="13">
@@ -5123,10 +5131,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>89.22</v>
+        <v>37.5</v>
       </c>
       <c r="C13" t="n">
-        <v>81.26000000000001</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="14">
@@ -5134,10 +5142,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>112.75</v>
+        <v>21.83</v>
       </c>
       <c r="C14" t="n">
-        <v>145.77</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="15">
@@ -5145,10 +5153,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>89.84</v>
+        <v>38.66</v>
       </c>
       <c r="C15" t="n">
-        <v>69.94</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="16">
@@ -5156,10 +5164,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>81.74000000000001</v>
+        <v>33.66</v>
       </c>
       <c r="C16" t="n">
-        <v>957.23</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="17">
@@ -5167,10 +5175,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>70.83</v>
+        <v>20.74</v>
       </c>
       <c r="C17" t="n">
-        <v>89.51000000000001</v>
+        <v>4.119999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5178,10 +5186,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>128.95</v>
+        <v>55.11</v>
       </c>
       <c r="C18" t="n">
-        <v>133.37</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="19">
@@ -5189,10 +5197,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>109.59</v>
+        <v>33.93</v>
       </c>
       <c r="C19" t="n">
-        <v>50.33</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5200,10 +5208,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>29.89</v>
       </c>
       <c r="C20" t="n">
-        <v>97.33</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="21">
@@ -5211,10 +5219,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>75.42999999999999</v>
+        <v>24.84</v>
       </c>
       <c r="C21" t="n">
-        <v>58.25</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="22">
@@ -5222,10 +5230,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>86.38</v>
+        <v>27.05</v>
       </c>
       <c r="C22" t="n">
-        <v>82.12</v>
+        <v>8.819999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5233,10 +5241,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>79.34</v>
+        <v>27.55</v>
       </c>
       <c r="C23" t="n">
-        <v>66.98999999999999</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="24">
@@ -5244,10 +5252,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>69.05</v>
+        <v>18.38</v>
       </c>
       <c r="C24" t="n">
-        <v>67.3</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="25">
@@ -5255,10 +5263,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>62.68</v>
+        <v>17.21</v>
       </c>
       <c r="C25" t="n">
-        <v>96.37</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="26">
@@ -5266,10 +5274,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>69.43000000000001</v>
+        <v>29.27</v>
       </c>
       <c r="C26" t="n">
-        <v>53.6</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="27">
@@ -5277,10 +5285,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>67.75</v>
+        <v>24.84</v>
       </c>
       <c r="C27" t="n">
-        <v>56.65</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5324,10 +5332,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>58.89</v>
+        <v>3.029999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>59.64</v>
+        <v>5.629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5335,10 +5343,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>52.73</v>
+        <v>3.94</v>
       </c>
       <c r="C3" t="n">
-        <v>61.48</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="4">
@@ -5346,10 +5354,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>49.64</v>
+        <v>3.82</v>
       </c>
       <c r="C4" t="n">
-        <v>66.34</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="5">
@@ -5357,10 +5365,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>71.12</v>
+        <v>4.56</v>
       </c>
       <c r="C5" t="n">
-        <v>55.58</v>
+        <v>2.989999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5368,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.18</v>
+        <v>2.65</v>
       </c>
       <c r="C6" t="n">
-        <v>258.09</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="7">
@@ -5379,10 +5387,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.73</v>
+        <v>3.75</v>
       </c>
       <c r="C7" t="n">
-        <v>81.01000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="8">
@@ -5390,10 +5398,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.32</v>
+        <v>4.18</v>
       </c>
       <c r="C8" t="n">
-        <v>63.45</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="9">
@@ -5401,10 +5409,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>58.26</v>
+        <v>6.919999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>52.34</v>
+        <v>5.970000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5412,10 +5420,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>49.49</v>
+        <v>7.370000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>253.5</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="11">
@@ -5423,10 +5431,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>66.43000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="C11" t="n">
-        <v>161.85</v>
+        <v>6.720000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5434,10 +5442,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.37</v>
+        <v>11.47</v>
       </c>
       <c r="C12" t="n">
-        <v>109.88</v>
+        <v>3.140000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5445,10 +5453,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>57.07</v>
+        <v>4.7</v>
       </c>
       <c r="C13" t="n">
-        <v>53.96</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="14">
@@ -5456,10 +5464,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>62.34</v>
+        <v>8.34</v>
       </c>
       <c r="C14" t="n">
-        <v>145.11</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="15">
@@ -5467,10 +5475,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>189.22</v>
+        <v>61.81</v>
       </c>
       <c r="C15" t="n">
-        <v>65.64</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="16">
@@ -5478,10 +5486,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>62.63</v>
+        <v>36.09</v>
       </c>
       <c r="C16" t="n">
-        <v>66.84</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5497,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>102.51</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>61.85</v>
+        <v>6.070000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5500,10 +5508,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>57.19</v>
+        <v>3.74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.09999999999999</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="19">
@@ -5511,10 +5519,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>48.61</v>
+        <v>3.110000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>175.93</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="20">
@@ -5522,10 +5530,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>68.72999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="C20" t="n">
-        <v>62.92</v>
+        <v>7.730000000000002</v>
       </c>
     </row>
     <row r="21">
@@ -5533,10 +5541,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>68.79000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="C21" t="n">
-        <v>108.54</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="22">
@@ -5544,10 +5552,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>48.26</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>49.9</v>
+        <v>5.970000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5555,10 +5563,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>102.18</v>
+        <v>9.630000000000003</v>
       </c>
       <c r="C23" t="n">
-        <v>55.46</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="24">
@@ -5566,10 +5574,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>51.32</v>
+        <v>5.74</v>
       </c>
       <c r="C24" t="n">
-        <v>53.84</v>
+        <v>2.529999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5577,10 +5585,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>47.43</v>
+        <v>4.17</v>
       </c>
       <c r="C25" t="n">
-        <v>81.70999999999999</v>
+        <v>5.370000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5588,10 +5596,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>54.5</v>
+        <v>18.07</v>
       </c>
       <c r="C26" t="n">
-        <v>58.45</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27">
@@ -5599,10 +5607,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>63.69</v>
+        <v>10.18</v>
       </c>
       <c r="C27" t="n">
-        <v>79.08</v>
+        <v>10.86</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>139.11</v>
+        <v>12.68</v>
       </c>
       <c r="C2" t="n">
-        <v>216.18</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="3">
@@ -5657,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>143.54</v>
+        <v>9.68</v>
       </c>
       <c r="C3" t="n">
-        <v>185.57</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="4">
@@ -5668,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>149.57</v>
+        <v>74.2</v>
       </c>
       <c r="C4" t="n">
-        <v>232.56</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="5">
@@ -5679,10 +5687,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>164.23</v>
+        <v>10.04</v>
       </c>
       <c r="C5" t="n">
-        <v>429.98</v>
+        <v>9.990000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -5690,10 +5698,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>124.89</v>
+        <v>19.98</v>
       </c>
       <c r="C6" t="n">
-        <v>251.34</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="7">
@@ -5701,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>121.02</v>
+        <v>14.94</v>
       </c>
       <c r="C7" t="n">
-        <v>196.19</v>
+        <v>6.870000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5712,10 +5720,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>130.66</v>
+        <v>14.06</v>
       </c>
       <c r="C8" t="n">
-        <v>112.02</v>
+        <v>4.970000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5723,10 +5731,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>116.89</v>
+        <v>12.99</v>
       </c>
       <c r="C9" t="n">
-        <v>183.07</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="10">
@@ -5734,10 +5742,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>268.47</v>
+        <v>28.42</v>
       </c>
       <c r="C10" t="n">
-        <v>176.8</v>
+        <v>9.040000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5745,10 +5753,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>277.68</v>
+        <v>38.85</v>
       </c>
       <c r="C11" t="n">
-        <v>257.19</v>
+        <v>3.850000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5756,10 +5764,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>103.74</v>
+        <v>26.16</v>
       </c>
       <c r="C12" t="n">
-        <v>189.41</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="13">
@@ -5767,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>140.07</v>
+        <v>19.55</v>
       </c>
       <c r="C13" t="n">
-        <v>99.56</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="14">
@@ -5778,10 +5786,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>126</v>
+        <v>12.13</v>
       </c>
       <c r="C14" t="n">
-        <v>203.93</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="15">
@@ -5789,10 +5797,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>154.59</v>
+        <v>66.21000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>350.55</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="16">
@@ -5800,10 +5808,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>187.21</v>
+        <v>48.11</v>
       </c>
       <c r="C16" t="n">
-        <v>137.42</v>
+        <v>9.650000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -5811,10 +5819,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>151.26</v>
+        <v>26.92</v>
       </c>
       <c r="C17" t="n">
-        <v>98.03</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="18">
@@ -5822,10 +5830,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>169.35</v>
+        <v>28.47</v>
       </c>
       <c r="C18" t="n">
-        <v>850.9</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="19">
@@ -5833,10 +5841,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>114.17</v>
+        <v>9.080000000000002</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="20">
@@ -5844,10 +5852,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>105.87</v>
+        <v>15.75</v>
       </c>
       <c r="C20" t="n">
-        <v>191.41</v>
+        <v>8.950000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5855,10 +5863,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>120.51</v>
+        <v>34.23999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>144.88</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="22">
@@ -5866,10 +5874,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>103.64</v>
+        <v>17.66</v>
       </c>
       <c r="C22" t="n">
-        <v>112.88</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5877,10 +5885,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>138.04</v>
+        <v>15.01</v>
       </c>
       <c r="C23" t="n">
-        <v>160.6</v>
+        <v>4.290000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5888,10 +5896,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>97.45</v>
+        <v>21.93</v>
       </c>
       <c r="C24" t="n">
-        <v>140.35</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5899,10 +5907,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>94.36999999999999</v>
+        <v>7.919999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>213.86</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="26">
@@ -5910,10 +5918,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>146.26</v>
+        <v>21.01</v>
       </c>
       <c r="C26" t="n">
-        <v>397.14</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="27">
@@ -5921,10 +5929,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>233.03</v>
+        <v>21.68</v>
       </c>
       <c r="C27" t="n">
-        <v>126.55</v>
+        <v>5.29</v>
       </c>
     </row>
   </sheetData>
@@ -5968,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.866915636252061</v>
+        <v>1.39</v>
       </c>
       <c r="C2" t="n">
-        <v>6.661405187154632</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
@@ -5979,10 +5987,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.84937198144843</v>
+        <v>1.09</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305383762855466</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4">
@@ -5990,10 +5998,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.966572487923679</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>7.161161903266222</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
@@ -6001,10 +6009,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.47169763962778</v>
+        <v>1.16</v>
       </c>
       <c r="C5" t="n">
-        <v>2.974115803836744</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -6012,10 +6020,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.942705687173542</v>
+        <v>1.03</v>
       </c>
       <c r="C6" t="n">
-        <v>4.029951751248475</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -6023,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3.855310007433501</v>
+        <v>1.07</v>
       </c>
       <c r="C7" t="n">
-        <v>3.71143879743679</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -6034,10 +6042,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.602190829384936</v>
+        <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>2.129542746307148</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6045,10 +6053,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.083583523902362</v>
+        <v>0.88</v>
       </c>
       <c r="C9" t="n">
-        <v>4.223373661587605</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10">
@@ -6056,10 +6064,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.174772793632895</v>
+        <v>0.85</v>
       </c>
       <c r="C10" t="n">
-        <v>3.756655998095146</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="11">
@@ -6067,10 +6075,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.696427025062993</v>
+        <v>1.25</v>
       </c>
       <c r="C11" t="n">
-        <v>4.135376473276823</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12">
@@ -6078,10 +6086,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.061804726882055</v>
+        <v>1.09</v>
       </c>
       <c r="C12" t="n">
-        <v>3.503816254644115</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="13">
@@ -6089,10 +6097,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.58602071602909</v>
+        <v>1.65</v>
       </c>
       <c r="C13" t="n">
-        <v>3.316430100951395</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
@@ -6100,10 +6108,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.142820097748558</v>
+        <v>1.38</v>
       </c>
       <c r="C14" t="n">
-        <v>1.892571182745892</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="15">
@@ -6111,10 +6119,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.598495204136974</v>
+        <v>1.14</v>
       </c>
       <c r="C15" t="n">
-        <v>3.836315796814483</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16">
@@ -6122,10 +6130,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.238593564158482</v>
+        <v>0.86</v>
       </c>
       <c r="C16" t="n">
-        <v>3.973195861880174</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17">
@@ -6133,10 +6141,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.825750808895647</v>
+        <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>2.963332060814538</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18">
@@ -6144,10 +6152,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>7.284665025836013</v>
+        <v>1.72</v>
       </c>
       <c r="C18" t="n">
-        <v>4.535831834816744</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="19">
@@ -6155,10 +6163,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.799536230851395</v>
+        <v>0.86</v>
       </c>
       <c r="C19" t="n">
-        <v>4.354018612610057</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="20">
@@ -6166,10 +6174,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.676813776546284</v>
+        <v>0.88</v>
       </c>
       <c r="C20" t="n">
-        <v>4.314125627168413</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="21">
@@ -6177,10 +6185,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.169460547070322</v>
+        <v>1.06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.15096187101893</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="22">
@@ -6188,10 +6196,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2.167684632515559</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>4.523855392059848</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23">
@@ -6199,10 +6207,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.619763518357894</v>
+        <v>0.89</v>
       </c>
       <c r="C23" t="n">
-        <v>4.687932102814862</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="24">
@@ -6210,10 +6218,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.304395123089922</v>
+        <v>0.96</v>
       </c>
       <c r="C24" t="n">
-        <v>3.774468576724275</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="25">
@@ -6221,10 +6229,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.445348363843468</v>
+        <v>0.92</v>
       </c>
       <c r="C25" t="n">
-        <v>5.817083020297849</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="26">
@@ -6232,10 +6240,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2.955549792507622</v>
+        <v>0.99</v>
       </c>
       <c r="C26" t="n">
-        <v>25.48884455241141</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="27">
@@ -6243,10 +6251,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.463953667916144</v>
+        <v>0.95</v>
       </c>
       <c r="C27" t="n">
-        <v>3.745695322571366</v>
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
@@ -6290,10 +6298,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.346691203545518</v>
+        <v>1.76</v>
       </c>
       <c r="C2" t="n">
-        <v>4.332565527160187</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3">
@@ -6301,10 +6309,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.371843999238745</v>
+        <v>1.45</v>
       </c>
       <c r="C3" t="n">
-        <v>5.625951831203206</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="4">
@@ -6312,10 +6320,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.356737155170729</v>
+        <v>2.74</v>
       </c>
       <c r="C4" t="n">
-        <v>6.470589731528373</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="5">
@@ -6323,10 +6331,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.416274292160626</v>
+        <v>10.42</v>
       </c>
       <c r="C5" t="n">
-        <v>2.061625864249676</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -6334,10 +6342,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.018438346210944</v>
+        <v>1.28</v>
       </c>
       <c r="C6" t="n">
-        <v>6.021709069690647</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
@@ -6345,10 +6353,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.66028385305315</v>
+        <v>1.72</v>
       </c>
       <c r="C7" t="n">
-        <v>3.347671425955612</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -6356,10 +6364,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.810470995536414</v>
+        <v>2.86</v>
       </c>
       <c r="C8" t="n">
-        <v>2.475931220423726</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -6367,10 +6375,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.675780995952735</v>
+        <v>1.87</v>
       </c>
       <c r="C9" t="n">
-        <v>4.966554632630043</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10">
@@ -6378,10 +6386,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5.759895275550224</v>
+        <v>1.46</v>
       </c>
       <c r="C10" t="n">
-        <v>6.077917549719487</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">
@@ -6389,10 +6397,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.90696108850906</v>
+        <v>1.57</v>
       </c>
       <c r="C11" t="n">
-        <v>3.65777798088647</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="12">
@@ -6400,10 +6408,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.69197999982659</v>
+        <v>2.59</v>
       </c>
       <c r="C12" t="n">
-        <v>4.612352167676764</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="13">
@@ -6411,10 +6419,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.90535953626242</v>
+        <v>1.86</v>
       </c>
       <c r="C13" t="n">
-        <v>1.262523900325253</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="14">
@@ -6422,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.62658184820268</v>
+        <v>2.45</v>
       </c>
       <c r="C14" t="n">
-        <v>3.584877533436976</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="15">
@@ -6433,10 +6441,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.8249509770841</v>
+        <v>2.04</v>
       </c>
       <c r="C15" t="n">
-        <v>88.11114862453827</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="16">
@@ -6444,10 +6452,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.04071301769276</v>
+        <v>1.49</v>
       </c>
       <c r="C16" t="n">
-        <v>5.534181833160362</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="17">
@@ -6455,10 +6463,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.572937905981572</v>
+        <v>1.7</v>
       </c>
       <c r="C17" t="n">
-        <v>3.009411594342283</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="18">
@@ -6466,10 +6474,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11.16753131665052</v>
+        <v>1.7</v>
       </c>
       <c r="C18" t="n">
-        <v>4.654298357739367</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -6477,10 +6485,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5.798612503410641</v>
+        <v>1.85</v>
       </c>
       <c r="C19" t="n">
-        <v>2.566184305476923</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -6488,10 +6496,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4.415422848525634</v>
+        <v>1.34</v>
       </c>
       <c r="C20" t="n">
-        <v>4.962745558393171</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="21">
@@ -6499,10 +6507,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5.736878907348856</v>
+        <v>1.53</v>
       </c>
       <c r="C21" t="n">
-        <v>5.010129562039461</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="22">
@@ -6510,10 +6518,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5.146258361379957</v>
+        <v>1.4</v>
       </c>
       <c r="C22" t="n">
-        <v>3.766846406554777</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="23">
@@ -6521,10 +6529,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>10.63750382285322</v>
+        <v>1.6</v>
       </c>
       <c r="C23" t="n">
-        <v>2.90075230495355</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24">
@@ -6532,10 +6540,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.777189902653846</v>
+        <v>1.46</v>
       </c>
       <c r="C24" t="n">
-        <v>4.790898677675774</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="25">
@@ -6543,10 +6551,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>8.202662514099677</v>
+        <v>1.78</v>
       </c>
       <c r="C25" t="n">
-        <v>3.308863786317768</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="26">
@@ -6554,10 +6562,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7.040589950179384</v>
+        <v>1.47</v>
       </c>
       <c r="C26" t="n">
-        <v>6.389364862797025</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="27">
@@ -6565,10 +6573,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>6.343285031613712</v>
+        <v>1.45</v>
       </c>
       <c r="C27" t="n">
-        <v>3.542275866840918</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -6612,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.7140782903236</v>
+        <v>5.05</v>
       </c>
       <c r="C2" t="n">
-        <v>6.106259833737668</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="3">
@@ -6623,10 +6631,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.889893835454463</v>
+        <v>3.87</v>
       </c>
       <c r="C3" t="n">
-        <v>3.781930436614588</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="4">
@@ -6634,10 +6642,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.62158116566054</v>
+        <v>5.22</v>
       </c>
       <c r="C4" t="n">
-        <v>6.715393173751153</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="5">
@@ -6645,10 +6653,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.545603883071924</v>
+        <v>4.32</v>
       </c>
       <c r="C5" t="n">
-        <v>4.665444361502908</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="6">
@@ -6656,10 +6664,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.154951221540163</v>
+        <v>4.91</v>
       </c>
       <c r="C6" t="n">
-        <v>4.22012453004829</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="7">
@@ -6667,10 +6675,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.976597050352488</v>
+        <v>5.08</v>
       </c>
       <c r="C7" t="n">
-        <v>4.895334704020291</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="8">
@@ -6678,10 +6686,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.634397906489474</v>
+        <v>3.67</v>
       </c>
       <c r="C8" t="n">
-        <v>5.070623712803332</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="9">
@@ -6689,10 +6697,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.245476380710395</v>
+        <v>3.72</v>
       </c>
       <c r="C9" t="n">
-        <v>10.88548474472881</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="10">
@@ -6700,10 +6708,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3.811026179025489</v>
+        <v>4.37</v>
       </c>
       <c r="C10" t="n">
-        <v>4.539764345005517</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="11">
@@ -6711,10 +6719,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4.121567886862001</v>
+        <v>5.88</v>
       </c>
       <c r="C11" t="n">
-        <v>3.979454913930914</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="12">
@@ -6722,10 +6730,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.97159159654286</v>
+        <v>9.19</v>
       </c>
       <c r="C12" t="n">
-        <v>4.46359068742833</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="13">
@@ -6733,10 +6741,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4.296318104315206</v>
+        <v>4.54</v>
       </c>
       <c r="C13" t="n">
-        <v>3.353522000753352</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="14">
@@ -6744,10 +6752,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.313693244764342</v>
+        <v>5.62</v>
       </c>
       <c r="C14" t="n">
-        <v>5.445745942117574</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="15">
@@ -6755,10 +6763,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.023489701123062</v>
+        <v>4.08</v>
       </c>
       <c r="C15" t="n">
-        <v>6.610760176820003</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="16">
@@ -6766,10 +6774,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.247394501958268</v>
+        <v>6.72</v>
       </c>
       <c r="C16" t="n">
-        <v>4.641224257800115</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="17">
@@ -6777,10 +6785,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.992912854612924</v>
+        <v>4.46</v>
       </c>
       <c r="C17" t="n">
-        <v>5.427390133912242</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="18">
@@ -6788,10 +6796,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2.642699768469045</v>
+        <v>3.92</v>
       </c>
       <c r="C18" t="n">
-        <v>6.022787185227954</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="19">
@@ -6799,10 +6807,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.936436499372883</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>4.184279024387092</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="20">
@@ -6810,10 +6818,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.787923886021093</v>
+        <v>3.58</v>
       </c>
       <c r="C20" t="n">
-        <v>5.365427083929553</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="21">
@@ -6821,10 +6829,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.479247887769573</v>
+        <v>4.15</v>
       </c>
       <c r="C21" t="n">
-        <v>5.572026709883881</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="22">
@@ -6832,10 +6840,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4.646309102689686</v>
+        <v>5.32</v>
       </c>
       <c r="C22" t="n">
-        <v>5.196175553689988</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="23">
@@ -6843,10 +6851,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.201024785321672</v>
+        <v>5.41</v>
       </c>
       <c r="C23" t="n">
-        <v>4.536583902380079</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="24">
@@ -6854,10 +6862,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.864698935833087</v>
+        <v>4.48</v>
       </c>
       <c r="C24" t="n">
-        <v>3.970010199849617</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="25">
@@ -6865,10 +6873,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>3.882571667826937</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>6.130769753982025</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="26">
@@ -6876,10 +6884,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6.070752143845505</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>5.343792213694913</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="27">
@@ -6887,10 +6895,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.131181875149719</v>
+        <v>4.08</v>
       </c>
       <c r="C27" t="n">
-        <v>6.452217714237724</v>
+        <v>4.88</v>
       </c>
     </row>
   </sheetData>
@@ -6934,10 +6942,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3783170233197</v>
+        <v>3.63</v>
       </c>
       <c r="C2" t="n">
-        <v>10.15196022544559</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -6945,10 +6953,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.384785958979345</v>
+        <v>3.46</v>
       </c>
       <c r="C3" t="n">
-        <v>4.695318142975449</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="4">
@@ -6956,10 +6964,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.984233928315684</v>
+        <v>3.77</v>
       </c>
       <c r="C4" t="n">
-        <v>9.870499876478791</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="5">
@@ -6967,10 +6975,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.33851393606229</v>
+        <v>3.76</v>
       </c>
       <c r="C5" t="n">
-        <v>5.531255060593095</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="6">
@@ -6978,10 +6986,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.848126688375067</v>
+        <v>3.56</v>
       </c>
       <c r="C6" t="n">
-        <v>4.393662953883004</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="7">
@@ -6989,10 +6997,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2703218450085</v>
+        <v>3.55</v>
       </c>
       <c r="C7" t="n">
-        <v>3.347437626026061</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="8">
@@ -7000,10 +7008,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.095224802877972</v>
+        <v>4.02</v>
       </c>
       <c r="C8" t="n">
-        <v>4.046123603887768</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="9">
@@ -7011,10 +7019,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6.368838025839003</v>
+        <v>3.46</v>
       </c>
       <c r="C9" t="n">
-        <v>4.22593155979649</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="10">
@@ -7022,10 +7030,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.946886121938291</v>
+        <v>4.539999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>6.59718372729396</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="11">
@@ -7033,10 +7041,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.046584205994012</v>
+        <v>3.84</v>
       </c>
       <c r="C11" t="n">
-        <v>4.035154675121973</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="12">
@@ -7044,10 +7052,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.68313094229396</v>
+        <v>3.95</v>
       </c>
       <c r="C12" t="n">
-        <v>4.138854711575957</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="13">
@@ -7055,10 +7063,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.694548848789639</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
-        <v>3.063850237549405</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="14">
@@ -7066,10 +7074,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.52736868928611</v>
+        <v>4.79</v>
       </c>
       <c r="C14" t="n">
-        <v>6.139625818145402</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="15">
@@ -7077,10 +7085,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.57554459296073</v>
+        <v>3.55</v>
       </c>
       <c r="C15" t="n">
-        <v>7.297050914567424</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="16">
@@ -7088,10 +7096,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.34377013732409</v>
+        <v>3.68</v>
       </c>
       <c r="C16" t="n">
-        <v>8.939745325021628</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="17">
@@ -7099,10 +7107,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6.54331517568209</v>
+        <v>3.8</v>
       </c>
       <c r="C17" t="n">
-        <v>5.341386905855952</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="18">
@@ -7110,10 +7118,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12.40989262603671</v>
+        <v>5.12</v>
       </c>
       <c r="C18" t="n">
-        <v>4.448763058539057</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="19">
@@ -7121,10 +7129,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7.968169854368834</v>
+        <v>3.58</v>
       </c>
       <c r="C19" t="n">
-        <v>4.427310945460859</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="20">
@@ -7132,10 +7140,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>8.437711034430391</v>
+        <v>3.49</v>
       </c>
       <c r="C20" t="n">
-        <v>7.957830028796306</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="21">
@@ -7143,10 +7151,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6.551305802039348</v>
+        <v>3.62</v>
       </c>
       <c r="C21" t="n">
-        <v>15.37319866933717</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -7154,10 +7162,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6.860570309551371</v>
+        <v>3.45</v>
       </c>
       <c r="C22" t="n">
-        <v>6.352487371453834</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="23">
@@ -7165,10 +7173,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>17.36065659726872</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.921643003221708</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="24">
@@ -7176,10 +7184,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>7.754353765043304</v>
+        <v>3.47</v>
       </c>
       <c r="C24" t="n">
-        <v>3.600652579973731</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="25">
@@ -7187,10 +7195,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>9.758697586273499</v>
+        <v>4.03</v>
       </c>
       <c r="C25" t="n">
-        <v>5.789606244541972</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="26">
@@ -7198,10 +7206,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>10.89531377828087</v>
+        <v>3.64</v>
       </c>
       <c r="C26" t="n">
-        <v>5.867368186153441</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="27">
@@ -7209,10 +7217,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.264968776656748</v>
+        <v>3.63</v>
       </c>
       <c r="C27" t="n">
-        <v>5.310153990589992</v>
+        <v>3.31</v>
       </c>
     </row>
   </sheetData>
@@ -7256,10 +7264,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.484746131172503</v>
+        <v>70.32000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>20.20264011817934</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -7267,10 +7275,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.184523320517972</v>
+        <v>64.92</v>
       </c>
       <c r="C3" t="n">
-        <v>5.708177782272859</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="4">
@@ -7278,10 +7286,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.371525755543221</v>
+        <v>46.59</v>
       </c>
       <c r="C4" t="n">
-        <v>6.332261164327027</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="5">
@@ -7289,10 +7297,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.499861127070113</v>
+        <v>139.53</v>
       </c>
       <c r="C5" t="n">
-        <v>6.158252724007539</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="6">
@@ -7300,10 +7308,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.717993009862219</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>7.380176319587429</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="7">
@@ -7311,10 +7319,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.428415709556955</v>
+        <v>48.51000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5.171906288124414</v>
+        <v>38.43</v>
       </c>
     </row>
     <row r="8">
@@ -7322,10 +7330,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.718374709677704</v>
+        <v>62.39</v>
       </c>
       <c r="C8" t="n">
-        <v>3.881910606489528</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="9">
@@ -7333,10 +7341,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.470410858157138</v>
+        <v>35.65</v>
       </c>
       <c r="C9" t="n">
-        <v>5.899803799684279</v>
+        <v>36.03</v>
       </c>
     </row>
     <row r="10">
@@ -7344,10 +7352,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.968617257719409</v>
+        <v>223.53</v>
       </c>
       <c r="C10" t="n">
-        <v>6.466871222706747</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="11">
@@ -7355,10 +7363,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.37457388063817</v>
+        <v>59.95</v>
       </c>
       <c r="C11" t="n">
-        <v>4.51218227318995</v>
+        <v>42.71</v>
       </c>
     </row>
     <row r="12">
@@ -7366,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.429244627880868</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>9.816361756305829</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -7377,10 +7385,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1264538892273</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>5.409494810866622</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="14">
@@ -7388,10 +7396,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.50322793142225</v>
+        <v>62.72</v>
       </c>
       <c r="C14" t="n">
-        <v>5.043583866570233</v>
+        <v>42.31</v>
       </c>
     </row>
     <row r="15">
@@ -7399,10 +7407,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.869652455162565</v>
+        <v>40.26</v>
       </c>
       <c r="C15" t="n">
-        <v>54.6030266021542</v>
+        <v>1980.85</v>
       </c>
     </row>
     <row r="16">
@@ -7410,10 +7418,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>4.523558835862182</v>
+        <v>37.02</v>
       </c>
       <c r="C16" t="n">
-        <v>6.763146356503209</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="17">
@@ -7421,10 +7429,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.040727755930213</v>
+        <v>97.48</v>
       </c>
       <c r="C17" t="n">
-        <v>4.641253333897146</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="18">
@@ -7432,10 +7440,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6.986156466509776</v>
+        <v>47.7</v>
       </c>
       <c r="C18" t="n">
-        <v>7.191074027373915</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="19">
@@ -7443,10 +7451,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4.270080337806909</v>
+        <v>38.56</v>
       </c>
       <c r="C19" t="n">
-        <v>5.042626535576084</v>
+        <v>34.55</v>
       </c>
     </row>
     <row r="20">
@@ -7454,10 +7462,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.974482364222347</v>
+        <v>85.34</v>
       </c>
       <c r="C20" t="n">
-        <v>7.757705677837786</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="21">
@@ -7465,10 +7473,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.482178293646684</v>
+        <v>50.53</v>
       </c>
       <c r="C21" t="n">
-        <v>4.733008412065169</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="22">
@@ -7476,10 +7484,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6.621178238128757</v>
+        <v>148.52</v>
       </c>
       <c r="C22" t="n">
-        <v>4.487739723950136</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="23">
@@ -7487,10 +7495,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.574097321392869</v>
+        <v>48.5</v>
       </c>
       <c r="C23" t="n">
-        <v>3.952478330355771</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="24">
@@ -7498,10 +7506,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6.26642861111729</v>
+        <v>42.75</v>
       </c>
       <c r="C24" t="n">
-        <v>5.798528210083958</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="25">
@@ -7509,10 +7517,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>9.343605815349481</v>
+        <v>125.16</v>
       </c>
       <c r="C25" t="n">
-        <v>5.403529277617979</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="26">
@@ -7520,10 +7528,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6.405589721561027</v>
+        <v>51.91</v>
       </c>
       <c r="C26" t="n">
-        <v>6.005393962704999</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="27">
@@ -7531,10 +7539,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>8.146141030210563</v>
+        <v>51.18</v>
       </c>
       <c r="C27" t="n">
-        <v>6.436182448838896</v>
+        <v>30.82</v>
       </c>
     </row>
   </sheetData>
@@ -7900,10 +7908,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.50233444017133</v>
+        <v>97.33000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>7.434632136647389</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="3">
@@ -7911,10 +7919,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.259713881804752</v>
+        <v>63.09</v>
       </c>
       <c r="C3" t="n">
-        <v>5.708018084767884</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -7922,10 +7930,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.41491433921757</v>
+        <v>68.95</v>
       </c>
       <c r="C4" t="n">
-        <v>5.359630755802396</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="5">
@@ -7933,10 +7941,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.44468845630849</v>
+        <v>76.08</v>
       </c>
       <c r="C5" t="n">
-        <v>6.481059390826099</v>
+        <v>321.5</v>
       </c>
     </row>
     <row r="6">
@@ -7944,10 +7952,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.249627147574421</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>6.084318104754973</v>
+        <v>178.63</v>
       </c>
     </row>
     <row r="7">
@@ -7955,10 +7963,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.60926563975475</v>
+        <v>72.72</v>
       </c>
       <c r="C7" t="n">
-        <v>4.207688516698877</v>
+        <v>71.42</v>
       </c>
     </row>
     <row r="8">
@@ -7966,10 +7974,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.312014420189315</v>
+        <v>89.23</v>
       </c>
       <c r="C8" t="n">
-        <v>4.752765182889591</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="9">
@@ -7977,10 +7985,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.50104146928099</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>4.568041337815236</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -7988,10 +7996,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2060975706393</v>
+        <v>105.71</v>
       </c>
       <c r="C10" t="n">
-        <v>5.789129556744797</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="11">
@@ -7999,10 +8007,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.437724557569883</v>
+        <v>74.25</v>
       </c>
       <c r="C11" t="n">
-        <v>3.50290877894351</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="12">
@@ -8010,10 +8018,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.451460648361707</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>5.184880104335302</v>
+        <v>57.61</v>
       </c>
     </row>
     <row r="13">
@@ -8021,10 +8029,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.60043780574521</v>
+        <v>89.22</v>
       </c>
       <c r="C13" t="n">
-        <v>7.430940304510561</v>
+        <v>81.26000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -8032,10 +8040,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.210647706929851</v>
+        <v>112.75</v>
       </c>
       <c r="C14" t="n">
-        <v>11.23076216057287</v>
+        <v>145.77</v>
       </c>
     </row>
     <row r="15">
@@ -8043,10 +8051,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.75982796483034</v>
+        <v>89.84</v>
       </c>
       <c r="C15" t="n">
-        <v>7.709239154915333</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="16">
@@ -8054,10 +8062,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.75527310168848</v>
+        <v>81.74000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>22.20132726391236</v>
+        <v>957.23</v>
       </c>
     </row>
     <row r="17">
@@ -8065,10 +8073,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.941157503334066</v>
+        <v>70.83</v>
       </c>
       <c r="C17" t="n">
-        <v>5.295655250859226</v>
+        <v>89.51000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -8076,10 +8084,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>30.82126878697501</v>
+        <v>128.95</v>
       </c>
       <c r="C18" t="n">
-        <v>7.226250098111377</v>
+        <v>133.37</v>
       </c>
     </row>
     <row r="19">
@@ -8087,10 +8095,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>10.18153481817799</v>
+        <v>109.59</v>
       </c>
       <c r="C19" t="n">
-        <v>3.429027017951487</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="20">
@@ -8098,10 +8106,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>10.37358102521029</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
-        <v>8.004561574581368</v>
+        <v>97.33</v>
       </c>
     </row>
     <row r="21">
@@ -8109,10 +8117,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>7.18800980895806</v>
+        <v>75.42999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>5.736437729902752</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="22">
@@ -8120,10 +8128,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>7.504233980954124</v>
+        <v>86.38</v>
       </c>
       <c r="C22" t="n">
-        <v>5.035785441072916</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="23">
@@ -8131,10 +8139,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9.617586213032338</v>
+        <v>79.34</v>
       </c>
       <c r="C23" t="n">
-        <v>7.20024424269437</v>
+        <v>66.98999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -8142,10 +8150,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>7.633031351817377</v>
+        <v>69.05</v>
       </c>
       <c r="C24" t="n">
-        <v>6.858586914314085</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="25">
@@ -8153,10 +8161,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0540875218516</v>
+        <v>62.68</v>
       </c>
       <c r="C25" t="n">
-        <v>6.784704588343769</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="26">
@@ -8164,10 +8172,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>10.91851797468983</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>5.218267762792102</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="27">
@@ -8175,10 +8183,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>12.20410173456986</v>
+        <v>67.75</v>
       </c>
       <c r="C27" t="n">
-        <v>5.055125862664654</v>
+        <v>56.65</v>
       </c>
     </row>
   </sheetData>
@@ -8222,10 +8230,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.024413003665146</v>
+        <v>58.89</v>
       </c>
       <c r="C2" t="n">
-        <v>3.195477137013393</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="3">
@@ -8233,10 +8241,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.931608733521717</v>
+        <v>52.73</v>
       </c>
       <c r="C3" t="n">
-        <v>2.57996852478606</v>
+        <v>61.48</v>
       </c>
     </row>
     <row r="4">
@@ -8244,10 +8252,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.447826999936892</v>
+        <v>49.64</v>
       </c>
       <c r="C4" t="n">
-        <v>2.713244390692129</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="5">
@@ -8255,10 +8263,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.215080593467125</v>
+        <v>71.12</v>
       </c>
       <c r="C5" t="n">
-        <v>2.025653695736551</v>
+        <v>55.58</v>
       </c>
     </row>
     <row r="6">
@@ -8266,10 +8274,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.078371399810699</v>
+        <v>49.18</v>
       </c>
       <c r="C6" t="n">
-        <v>9.422461654704595</v>
+        <v>258.09</v>
       </c>
     </row>
     <row r="7">
@@ -8277,10 +8285,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.011745756537548</v>
+        <v>49.73</v>
       </c>
       <c r="C7" t="n">
-        <v>3.515016373665417</v>
+        <v>81.01000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -8288,10 +8296,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.238813626928515</v>
+        <v>45.32</v>
       </c>
       <c r="C8" t="n">
-        <v>1.94354610101465</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="9">
@@ -8299,10 +8307,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.910421275283285</v>
+        <v>58.26</v>
       </c>
       <c r="C9" t="n">
-        <v>3.511241627231714</v>
+        <v>52.34</v>
       </c>
     </row>
     <row r="10">
@@ -8310,10 +8318,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.241529718553456</v>
+        <v>49.49</v>
       </c>
       <c r="C10" t="n">
-        <v>5.954574372840647</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="11">
@@ -8321,10 +8329,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.759069848070144</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4.623570880021537</v>
+        <v>161.85</v>
       </c>
     </row>
     <row r="12">
@@ -8332,10 +8340,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5.992716608823736</v>
+        <v>52.37</v>
       </c>
       <c r="C12" t="n">
-        <v>2.943448946933249</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="13">
@@ -8343,10 +8351,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.278799301402066</v>
+        <v>57.07</v>
       </c>
       <c r="C13" t="n">
-        <v>2.713456236511838</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="14">
@@ -8354,10 +8362,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.639977872191404</v>
+        <v>62.34</v>
       </c>
       <c r="C14" t="n">
-        <v>3.25547093477386</v>
+        <v>145.11</v>
       </c>
     </row>
     <row r="15">
@@ -8365,10 +8373,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.08610087105668</v>
+        <v>189.22</v>
       </c>
       <c r="C15" t="n">
-        <v>5.367622848914923</v>
+        <v>65.64</v>
       </c>
     </row>
     <row r="16">
@@ -8376,10 +8384,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.28916861176895</v>
+        <v>62.63</v>
       </c>
       <c r="C16" t="n">
-        <v>3.66655627311538</v>
+        <v>66.84</v>
       </c>
     </row>
     <row r="17">
@@ -8387,10 +8395,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.058580407079935</v>
+        <v>102.51</v>
       </c>
       <c r="C17" t="n">
-        <v>3.599314100888181</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="18">
@@ -8398,10 +8406,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.626807541117884</v>
+        <v>57.19</v>
       </c>
       <c r="C18" t="n">
-        <v>3.557851457188749</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -8409,10 +8417,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.207409867001564</v>
+        <v>48.61</v>
       </c>
       <c r="C19" t="n">
-        <v>4.630735457125461</v>
+        <v>175.93</v>
       </c>
     </row>
     <row r="20">
@@ -8420,10 +8428,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.568730586964569</v>
+        <v>68.72999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>3.529868848035077</v>
+        <v>62.92</v>
       </c>
     </row>
     <row r="21">
@@ -8431,10 +8439,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.973967537494437</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>7.326756542052024</v>
+        <v>108.54</v>
       </c>
     </row>
     <row r="22">
@@ -8442,10 +8450,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.432878034663153</v>
+        <v>48.26</v>
       </c>
       <c r="C22" t="n">
-        <v>2.980024779006798</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="23">
@@ -8453,10 +8461,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2.208764863642697</v>
+        <v>102.18</v>
       </c>
       <c r="C23" t="n">
-        <v>2.896894983595597</v>
+        <v>55.46</v>
       </c>
     </row>
     <row r="24">
@@ -8464,10 +8472,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.57541883888847</v>
+        <v>51.32</v>
       </c>
       <c r="C24" t="n">
-        <v>1.993716611143602</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="25">
@@ -8475,10 +8483,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.758505003781568</v>
+        <v>47.43</v>
       </c>
       <c r="C25" t="n">
-        <v>2.765171965264457</v>
+        <v>81.70999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -8486,10 +8494,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7.13575471646377</v>
+        <v>54.5</v>
       </c>
       <c r="C26" t="n">
-        <v>3.328298687202063</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="27">
@@ -8497,10 +8505,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3.743279303333047</v>
+        <v>63.69</v>
       </c>
       <c r="C27" t="n">
-        <v>6.656316136187217</v>
+        <v>79.08</v>
       </c>
     </row>
   </sheetData>
@@ -8544,10 +8552,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.499138460868179</v>
+        <v>139.11</v>
       </c>
       <c r="C2" t="n">
-        <v>7.203488305097147</v>
+        <v>216.18</v>
       </c>
     </row>
     <row r="3">
@@ -8555,10 +8563,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.439916696008233</v>
+        <v>143.54</v>
       </c>
       <c r="C3" t="n">
-        <v>5.021324541528617</v>
+        <v>185.57</v>
       </c>
     </row>
     <row r="4">
@@ -8566,10 +8574,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.9744768679379</v>
+        <v>149.57</v>
       </c>
       <c r="C4" t="n">
-        <v>7.231820139386565</v>
+        <v>232.56</v>
       </c>
     </row>
     <row r="5">
@@ -8577,10 +8585,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.458049322179469</v>
+        <v>164.23</v>
       </c>
       <c r="C5" t="n">
-        <v>5.198513558266553</v>
+        <v>429.98</v>
       </c>
     </row>
     <row r="6">
@@ -8588,10 +8596,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.363672374195362</v>
+        <v>124.89</v>
       </c>
       <c r="C6" t="n">
-        <v>6.693447091925613</v>
+        <v>251.34</v>
       </c>
     </row>
     <row r="7">
@@ -8599,10 +8607,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.741932301217624</v>
+        <v>121.02</v>
       </c>
       <c r="C7" t="n">
-        <v>6.615925999079707</v>
+        <v>196.19</v>
       </c>
     </row>
     <row r="8">
@@ -8610,10 +8618,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.271925719658122</v>
+        <v>130.66</v>
       </c>
       <c r="C8" t="n">
-        <v>3.172957355984226</v>
+        <v>112.02</v>
       </c>
     </row>
     <row r="9">
@@ -8621,10 +8629,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.410778386041542</v>
+        <v>116.89</v>
       </c>
       <c r="C9" t="n">
-        <v>9.015508656364315</v>
+        <v>183.07</v>
       </c>
     </row>
     <row r="10">
@@ -8632,10 +8640,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.51916728175033</v>
+        <v>268.47</v>
       </c>
       <c r="C10" t="n">
-        <v>7.53016903163913</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="11">
@@ -8643,10 +8651,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.38826968036285</v>
+        <v>277.68</v>
       </c>
       <c r="C11" t="n">
-        <v>4.244135439416616</v>
+        <v>257.19</v>
       </c>
     </row>
     <row r="12">
@@ -8654,10 +8662,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.55670036482</v>
+        <v>103.74</v>
       </c>
       <c r="C12" t="n">
-        <v>5.989937522547487</v>
+        <v>189.41</v>
       </c>
     </row>
     <row r="13">
@@ -8665,10 +8673,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.953123240300352</v>
+        <v>140.07</v>
       </c>
       <c r="C13" t="n">
-        <v>3.247515797211392</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="14">
@@ -8676,10 +8684,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>6.033568417422973</v>
+        <v>126</v>
       </c>
       <c r="C14" t="n">
-        <v>6.959010460571291</v>
+        <v>203.93</v>
       </c>
     </row>
     <row r="15">
@@ -8687,10 +8695,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.20350336367295</v>
+        <v>154.59</v>
       </c>
       <c r="C15" t="n">
-        <v>10.84949476263794</v>
+        <v>350.55</v>
       </c>
     </row>
     <row r="16">
@@ -8698,10 +8706,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.23289569063187</v>
+        <v>187.21</v>
       </c>
       <c r="C16" t="n">
-        <v>4.680489661650918</v>
+        <v>137.42</v>
       </c>
     </row>
     <row r="17">
@@ -8709,10 +8717,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.943370172675916</v>
+        <v>151.26</v>
       </c>
       <c r="C17" t="n">
-        <v>3.252916094583876</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="18">
@@ -8720,10 +8728,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11.58775973192581</v>
+        <v>169.35</v>
       </c>
       <c r="C18" t="n">
-        <v>15.44903818769055</v>
+        <v>850.9</v>
       </c>
     </row>
     <row r="19">
@@ -8731,10 +8739,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.825058210861105</v>
+        <v>114.17</v>
       </c>
       <c r="C19" t="n">
-        <v>3.582246677865601</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="20">
@@ -8742,10 +8750,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.272669810971339</v>
+        <v>105.87</v>
       </c>
       <c r="C20" t="n">
-        <v>4.787802880148036</v>
+        <v>191.41</v>
       </c>
     </row>
     <row r="21">
@@ -8753,10 +8761,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5.91613292804368</v>
+        <v>120.51</v>
       </c>
       <c r="C21" t="n">
-        <v>6.290441084610213</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="22">
@@ -8764,10 +8772,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.263271142268441</v>
+        <v>103.64</v>
       </c>
       <c r="C22" t="n">
-        <v>4.480530949113033</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="23">
@@ -8775,10 +8783,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.933521284490232</v>
+        <v>138.04</v>
       </c>
       <c r="C23" t="n">
-        <v>3.449771693953679</v>
+        <v>160.6</v>
       </c>
     </row>
     <row r="24">
@@ -8786,10 +8794,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6.644519357858452</v>
+        <v>97.45</v>
       </c>
       <c r="C24" t="n">
-        <v>4.973373661587604</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="25">
@@ -8797,10 +8805,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5.624860292978819</v>
+        <v>94.36999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>4.298194746117234</v>
+        <v>213.86</v>
       </c>
     </row>
     <row r="26">
@@ -8808,10 +8816,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5.417266975611983</v>
+        <v>146.26</v>
       </c>
       <c r="C26" t="n">
-        <v>9.667087798522831</v>
+        <v>397.14</v>
       </c>
     </row>
     <row r="27">
@@ -8819,10 +8827,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.278338603905802</v>
+        <v>233.03</v>
       </c>
       <c r="C27" t="n">
-        <v>3.894877592749126</v>
+        <v>126.55</v>
       </c>
     </row>
   </sheetData>
@@ -8866,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.073143003794682</v>
+        <v>1.866915636252061</v>
       </c>
       <c r="C2" t="n">
         <v>6.661405187154632</v>
@@ -8877,7 +8885,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9937303213024643</v>
+        <v>1.84937198144843</v>
       </c>
       <c r="C3" t="n">
         <v>3.305383762855466</v>
@@ -8888,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7237731468748578</v>
+        <v>1.966572487923679</v>
       </c>
       <c r="C4" t="n">
         <v>7.161161903266222</v>
@@ -8899,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8543256933910298</v>
+        <v>2.47169763962778</v>
       </c>
       <c r="C5" t="n">
         <v>2.974115803836744</v>
@@ -8910,7 +8918,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7708074094533216</v>
+        <v>2.942705687173542</v>
       </c>
       <c r="C6" t="n">
         <v>4.029951751248475</v>
@@ -8921,7 +8929,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.093642391811436</v>
+        <v>3.855310007433501</v>
       </c>
       <c r="C7" t="n">
         <v>3.71143879743679</v>
@@ -8932,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.132258152053981</v>
+        <v>1.602190829384936</v>
       </c>
       <c r="C8" t="n">
         <v>2.129542746307148</v>
@@ -8943,7 +8951,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7579331549912425</v>
+        <v>2.083583523902362</v>
       </c>
       <c r="C9" t="n">
         <v>4.223373661587605</v>
@@ -8954,7 +8962,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6265336603578282</v>
+        <v>2.174772793632895</v>
       </c>
       <c r="C10" t="n">
         <v>3.756655998095146</v>
@@ -8965,7 +8973,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8664639762874798</v>
+        <v>1.696427025062993</v>
       </c>
       <c r="C11" t="n">
         <v>4.135376473276823</v>
@@ -8976,7 +8984,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.357411676292846</v>
+        <v>8.061804726882055</v>
       </c>
       <c r="C12" t="n">
         <v>3.503816254644115</v>
@@ -8987,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.493523802533175</v>
+        <v>9.58602071602909</v>
       </c>
       <c r="C13" t="n">
         <v>3.316430100951395</v>
@@ -8998,7 +9006,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.799503158849921</v>
+        <v>5.142820097748558</v>
       </c>
       <c r="C14" t="n">
         <v>1.892571182745892</v>
@@ -9009,7 +9017,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.793813517640922</v>
+        <v>4.598495204136974</v>
       </c>
       <c r="C15" t="n">
         <v>3.836315796814483</v>
@@ -9020,7 +9028,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.275491655257048</v>
+        <v>3.238593564158482</v>
       </c>
       <c r="C16" t="n">
         <v>3.973195861880174</v>
@@ -9031,7 +9039,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.10671745038472</v>
+        <v>1.825750808895647</v>
       </c>
       <c r="C17" t="n">
         <v>2.963332060814538</v>
@@ -9042,7 +9050,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2.380228910434497</v>
+        <v>7.284665025836013</v>
       </c>
       <c r="C18" t="n">
         <v>4.535831834816744</v>
@@ -9053,7 +9061,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8966003637583446</v>
+        <v>1.799536230851395</v>
       </c>
       <c r="C19" t="n">
         <v>4.354018612610057</v>
@@ -9064,7 +9072,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.120087976106304</v>
+        <v>1.676813776546284</v>
       </c>
       <c r="C20" t="n">
         <v>4.314125627168413</v>
@@ -9075,7 +9083,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.251774935494705</v>
+        <v>2.169460547070322</v>
       </c>
       <c r="C21" t="n">
         <v>4.15096187101893</v>
@@ -9086,7 +9094,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.589180326486332</v>
+        <v>2.167684632515559</v>
       </c>
       <c r="C22" t="n">
         <v>4.523855392059848</v>
@@ -9097,7 +9105,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.027944371981474</v>
+        <v>1.619763518357894</v>
       </c>
       <c r="C23" t="n">
         <v>4.687932102814862</v>
@@ -9108,7 +9116,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.237545285126425</v>
+        <v>2.304395123089922</v>
       </c>
       <c r="C24" t="n">
         <v>3.774468576724275</v>
@@ -9119,7 +9127,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.032809470801039</v>
+        <v>1.445348363843468</v>
       </c>
       <c r="C25" t="n">
         <v>5.817083020297849</v>
@@ -9130,7 +9138,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.425679529999557</v>
+        <v>2.955549792507622</v>
       </c>
       <c r="C26" t="n">
         <v>25.48884455241141</v>
@@ -9141,7 +9149,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9670924839653617</v>
+        <v>3.463953667916144</v>
       </c>
       <c r="C27" t="n">
         <v>3.745695322571366</v>
@@ -9188,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.111078408737197</v>
+        <v>9.346691203545518</v>
       </c>
       <c r="C2" t="n">
         <v>4.332565527160187</v>
@@ -9199,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.230186595572438</v>
+        <v>6.371843999238745</v>
       </c>
       <c r="C3" t="n">
         <v>5.625951831203206</v>
@@ -9210,7 +9218,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.352279432260204</v>
+        <v>8.356737155170729</v>
       </c>
       <c r="C4" t="n">
         <v>6.470589731528373</v>
@@ -9221,7 +9229,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.993049239153728</v>
+        <v>9.416274292160626</v>
       </c>
       <c r="C5" t="n">
         <v>2.061625864249676</v>
@@ -9232,7 +9240,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.099111105941877</v>
+        <v>4.018438346210944</v>
       </c>
       <c r="C6" t="n">
         <v>6.021709069690647</v>
@@ -9243,7 +9251,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.790833348288354</v>
+        <v>9.66028385305315</v>
       </c>
       <c r="C7" t="n">
         <v>3.347671425955612</v>
@@ -9254,7 +9262,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.039821078763305</v>
+        <v>7.810470995536414</v>
       </c>
       <c r="C8" t="n">
         <v>2.475931220423726</v>
@@ -9265,7 +9273,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.637891411604901</v>
+        <v>8.675780995952735</v>
       </c>
       <c r="C9" t="n">
         <v>4.966554632630043</v>
@@ -9276,7 +9284,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.849055354018327</v>
+        <v>5.759895275550224</v>
       </c>
       <c r="C10" t="n">
         <v>6.077917549719487</v>
@@ -9287,7 +9295,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.817607997318652</v>
+        <v>7.90696108850906</v>
       </c>
       <c r="C11" t="n">
         <v>3.65777798088647</v>
@@ -9298,7 +9306,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.428180157863488</v>
+        <v>10.69197999982659</v>
       </c>
       <c r="C12" t="n">
         <v>4.612352167676764</v>
@@ -9309,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.649308604476117</v>
+        <v>16.90535953626242</v>
       </c>
       <c r="C13" t="n">
         <v>1.262523900325253</v>
@@ -9320,7 +9328,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.845239532351501</v>
+        <v>13.62658184820268</v>
       </c>
       <c r="C14" t="n">
         <v>3.584877533436976</v>
@@ -9331,7 +9339,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.388176060773692</v>
+        <v>8.8249509770841</v>
       </c>
       <c r="C15" t="n">
         <v>88.11114862453827</v>
@@ -9342,7 +9350,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.331889818076164</v>
+        <v>16.04071301769276</v>
       </c>
       <c r="C16" t="n">
         <v>5.534181833160362</v>
@@ -9353,7 +9361,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.910016903262299</v>
+        <v>8.572937905981572</v>
       </c>
       <c r="C17" t="n">
         <v>3.009411594342283</v>
@@ -9364,7 +9372,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3.099989178344884</v>
+        <v>11.16753131665052</v>
       </c>
       <c r="C18" t="n">
         <v>4.654298357739367</v>
@@ -9375,7 +9383,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.427406609493265</v>
+        <v>5.798612503410641</v>
       </c>
       <c r="C19" t="n">
         <v>2.566184305476923</v>
@@ -9386,7 +9394,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.10762069985989</v>
+        <v>4.415422848525634</v>
       </c>
       <c r="C20" t="n">
         <v>4.962745558393171</v>
@@ -9397,7 +9405,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.869627943143516</v>
+        <v>5.736878907348856</v>
       </c>
       <c r="C21" t="n">
         <v>5.010129562039461</v>
@@ -9408,7 +9416,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2.097405871813576</v>
+        <v>5.146258361379957</v>
       </c>
       <c r="C22" t="n">
         <v>3.766846406554777</v>
@@ -9419,7 +9427,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2.461881447783633</v>
+        <v>10.63750382285322</v>
       </c>
       <c r="C23" t="n">
         <v>2.90075230495355</v>
@@ -9430,7 +9438,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.150994175806246</v>
+        <v>5.777189902653846</v>
       </c>
       <c r="C24" t="n">
         <v>4.790898677675774</v>
@@ -9441,7 +9449,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2.603226582601618</v>
+        <v>8.202662514099677</v>
       </c>
       <c r="C25" t="n">
         <v>3.308863786317768</v>
@@ -9452,7 +9460,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2.551051405657533</v>
+        <v>7.040589950179384</v>
       </c>
       <c r="C26" t="n">
         <v>6.389364862797025</v>
@@ -9463,7 +9471,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.788134627446968</v>
+        <v>6.343285031613712</v>
       </c>
       <c r="C27" t="n">
         <v>3.542275866840918</v>
@@ -9510,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.555114745466994</v>
+        <v>19.7140782903236</v>
       </c>
       <c r="C2" t="n">
         <v>6.106259833737668</v>
@@ -9521,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.015731053483526</v>
+        <v>3.889893835454463</v>
       </c>
       <c r="C3" t="n">
         <v>3.781930436614588</v>
@@ -9532,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.424720538369259</v>
+        <v>3.62158116566054</v>
       </c>
       <c r="C4" t="n">
         <v>6.715393173751153</v>
@@ -9543,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.2625186484396</v>
+        <v>3.545603883071924</v>
       </c>
       <c r="C5" t="n">
         <v>4.665444361502908</v>
@@ -9554,7 +9562,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.392647273996136</v>
+        <v>4.154951221540163</v>
       </c>
       <c r="C6" t="n">
         <v>4.22012453004829</v>
@@ -9565,7 +9573,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3.937291214397403</v>
+        <v>6.976597050352488</v>
       </c>
       <c r="C7" t="n">
         <v>4.895334704020291</v>
@@ -9576,7 +9584,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.845162646328007</v>
+        <v>3.634397906489474</v>
       </c>
       <c r="C8" t="n">
         <v>5.070623712803332</v>
@@ -9587,7 +9595,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.798345357638146</v>
+        <v>3.245476380710395</v>
       </c>
       <c r="C9" t="n">
         <v>10.88548474472881</v>
@@ -9598,7 +9606,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.273343609496404</v>
+        <v>3.811026179025489</v>
       </c>
       <c r="C10" t="n">
         <v>4.539764345005517</v>
@@ -9609,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.089670257165284</v>
+        <v>4.121567886862001</v>
       </c>
       <c r="C11" t="n">
         <v>3.979454913930914</v>
@@ -9620,7 +9628,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.133313504477781</v>
+        <v>21.97159159654286</v>
       </c>
       <c r="C12" t="n">
         <v>4.46359068742833</v>
@@ -9631,7 +9639,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2.318560063068441</v>
+        <v>4.296318104315206</v>
       </c>
       <c r="C13" t="n">
         <v>3.353522000753352</v>
@@ -9642,7 +9650,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.476931069743604</v>
+        <v>4.313693244764342</v>
       </c>
       <c r="C14" t="n">
         <v>5.445745942117574</v>
@@ -9653,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.697729713296829</v>
+        <v>4.023489701123062</v>
       </c>
       <c r="C15" t="n">
         <v>6.610760176820003</v>
@@ -9664,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.19275794375739</v>
+        <v>7.247394501958268</v>
       </c>
       <c r="C16" t="n">
         <v>4.641224257800115</v>
@@ -9675,7 +9683,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.326076347239154</v>
+        <v>2.992912854612924</v>
       </c>
       <c r="C17" t="n">
         <v>5.427390133912242</v>
@@ -9686,7 +9694,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.849881634281879</v>
+        <v>2.642699768469045</v>
       </c>
       <c r="C18" t="n">
         <v>6.022787185227954</v>
@@ -9697,7 +9705,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.766837766055572</v>
+        <v>3.936436499372883</v>
       </c>
       <c r="C19" t="n">
         <v>4.184279024387092</v>
@@ -9708,7 +9716,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.703107412548869</v>
+        <v>2.787923886021093</v>
       </c>
       <c r="C20" t="n">
         <v>5.365427083929553</v>
@@ -9719,7 +9727,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.51892278274408</v>
+        <v>2.479247887769573</v>
       </c>
       <c r="C21" t="n">
         <v>5.572026709883881</v>
@@ -9730,7 +9738,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.295859543673238</v>
+        <v>4.646309102689686</v>
       </c>
       <c r="C22" t="n">
         <v>5.196175553689988</v>
@@ -9741,7 +9749,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2.749209217208264</v>
+        <v>4.201024785321672</v>
       </c>
       <c r="C23" t="n">
         <v>4.536583902380079</v>
@@ -9752,7 +9760,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.58947771245323</v>
+        <v>3.864698935833087</v>
       </c>
       <c r="C24" t="n">
         <v>3.970010199849617</v>
@@ -9763,7 +9771,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2.691434177714874</v>
+        <v>3.882571667826937</v>
       </c>
       <c r="C25" t="n">
         <v>6.130769753982025</v>
@@ -9774,7 +9782,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3.956961350716626</v>
+        <v>6.070752143845505</v>
       </c>
       <c r="C26" t="n">
         <v>5.343792213694913</v>
@@ -9785,7 +9793,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2.146429289565241</v>
+        <v>3.131181875149719</v>
       </c>
       <c r="C27" t="n">
         <v>6.452217714237724</v>
@@ -9832,7 +9840,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.966072713377766</v>
+        <v>11.3783170233197</v>
       </c>
       <c r="C2" t="n">
         <v>10.15196022544559</v>
@@ -9843,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.158200705609652</v>
+        <v>8.384785958979345</v>
       </c>
       <c r="C3" t="n">
         <v>4.695318142975449</v>
@@ -9854,7 +9862,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.333488012734682</v>
+        <v>6.984233928315684</v>
       </c>
       <c r="C4" t="n">
         <v>9.870499876478791</v>
@@ -9865,7 +9873,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.726959405752832</v>
+        <v>10.33851393606229</v>
       </c>
       <c r="C5" t="n">
         <v>5.531255060593095</v>
@@ -9876,7 +9884,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.425039872726944</v>
+        <v>6.848126688375067</v>
       </c>
       <c r="C6" t="n">
         <v>4.393662953883004</v>
@@ -9887,7 +9895,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.536317931813882</v>
+        <v>14.2703218450085</v>
       </c>
       <c r="C7" t="n">
         <v>3.347437626026061</v>
@@ -9898,7 +9906,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.091025169531866</v>
+        <v>8.095224802877972</v>
       </c>
       <c r="C8" t="n">
         <v>4.046123603887768</v>
@@ -9909,7 +9917,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.712093427194965</v>
+        <v>6.368838025839003</v>
       </c>
       <c r="C9" t="n">
         <v>4.22593155979649</v>
@@ -9920,7 +9928,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3.613683751039471</v>
+        <v>7.946886121938291</v>
       </c>
       <c r="C10" t="n">
         <v>6.59718372729396</v>
@@ -9931,7 +9939,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.519935784432708</v>
+        <v>9.046584205994012</v>
       </c>
       <c r="C11" t="n">
         <v>4.035154675121973</v>
@@ -9942,7 +9950,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.699416730481694</v>
+        <v>10.68313094229396</v>
       </c>
       <c r="C12" t="n">
         <v>4.138854711575957</v>
@@ -9953,7 +9961,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.129160501076944</v>
+        <v>7.694548848789639</v>
       </c>
       <c r="C13" t="n">
         <v>3.063850237549405</v>
@@ -9964,7 +9972,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.685244129073737</v>
+        <v>17.52736868928611</v>
       </c>
       <c r="C14" t="n">
         <v>6.139625818145402</v>
@@ -9975,7 +9983,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.479741588185119</v>
+        <v>16.57554459296073</v>
       </c>
       <c r="C15" t="n">
         <v>7.297050914567424</v>
@@ -9986,7 +9994,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>4.272450767886277</v>
+        <v>10.34377013732409</v>
       </c>
       <c r="C16" t="n">
         <v>8.939745325021628</v>
@@ -9997,7 +10005,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.403799844494934</v>
+        <v>6.54331517568209</v>
       </c>
       <c r="C17" t="n">
         <v>5.341386905855952</v>
@@ -10008,7 +10016,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.569005717331097</v>
+        <v>12.40989262603671</v>
       </c>
       <c r="C18" t="n">
         <v>4.448763058539057</v>
@@ -10019,7 +10027,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.655519880717944</v>
+        <v>7.968169854368834</v>
       </c>
       <c r="C19" t="n">
         <v>4.427310945460859</v>
@@ -10030,7 +10038,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.255248133251557</v>
+        <v>8.437711034430391</v>
       </c>
       <c r="C20" t="n">
         <v>7.957830028796306</v>
@@ -10041,7 +10049,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.433087176054223</v>
+        <v>6.551305802039348</v>
       </c>
       <c r="C21" t="n">
         <v>15.37319866933717</v>
@@ -10052,7 +10060,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.393640718102811</v>
+        <v>6.860570309551371</v>
       </c>
       <c r="C22" t="n">
         <v>6.352487371453834</v>
@@ -10063,7 +10071,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.524079030418678</v>
+        <v>17.36065659726872</v>
       </c>
       <c r="C23" t="n">
         <v>2.921643003221708</v>
@@ -10074,7 +10082,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.808679059581161</v>
+        <v>7.754353765043304</v>
       </c>
       <c r="C24" t="n">
         <v>3.600652579973731</v>
@@ -10085,7 +10093,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.873152522234976</v>
+        <v>9.758697586273499</v>
       </c>
       <c r="C25" t="n">
         <v>5.789606244541972</v>
@@ -10096,7 +10104,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4.96703881428301</v>
+        <v>10.89531377828087</v>
       </c>
       <c r="C26" t="n">
         <v>5.867368186153441</v>
@@ -10107,7 +10115,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2.163238989161522</v>
+        <v>4.264968776656748</v>
       </c>
       <c r="C27" t="n">
         <v>5.310153990589992</v>
@@ -10154,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.801807022419068</v>
+        <v>8.484746131172503</v>
       </c>
       <c r="C2" t="n">
         <v>20.20264011817934</v>
@@ -10165,7 +10173,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.815699068971323</v>
+        <v>4.184523320517972</v>
       </c>
       <c r="C3" t="n">
         <v>5.708177782272859</v>
@@ -10176,7 +10184,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.050300422862705</v>
+        <v>9.371525755543221</v>
       </c>
       <c r="C4" t="n">
         <v>6.332261164327027</v>
@@ -10187,7 +10195,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.621739059168093</v>
+        <v>6.499861127070113</v>
       </c>
       <c r="C5" t="n">
         <v>6.158252724007539</v>
@@ -10198,7 +10206,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.742503007075013</v>
+        <v>5.717993009862219</v>
       </c>
       <c r="C6" t="n">
         <v>7.380176319587429</v>
@@ -10209,7 +10217,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.701002607082315</v>
+        <v>9.428415709556955</v>
       </c>
       <c r="C7" t="n">
         <v>5.171906288124414</v>
@@ -10220,7 +10228,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.788342692334751</v>
+        <v>3.718374709677704</v>
       </c>
       <c r="C8" t="n">
         <v>3.881910606489528</v>
@@ -10231,7 +10239,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.284900323123679</v>
+        <v>3.470410858157138</v>
       </c>
       <c r="C9" t="n">
         <v>5.899803799684279</v>
@@ -10242,7 +10250,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5.757468424944588</v>
+        <v>6.968617257719409</v>
       </c>
       <c r="C10" t="n">
         <v>6.466871222706747</v>
@@ -10253,7 +10261,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4.27756315968925</v>
+        <v>10.37457388063817</v>
       </c>
       <c r="C11" t="n">
         <v>4.51218227318995</v>
@@ -10264,7 +10272,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.230105874168204</v>
+        <v>3.429244627880868</v>
       </c>
       <c r="C12" t="n">
         <v>9.816361756305829</v>
@@ -10275,7 +10283,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.916276374366471</v>
+        <v>10.1264538892273</v>
       </c>
       <c r="C13" t="n">
         <v>5.409494810866622</v>
@@ -10286,7 +10294,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.605856434353415</v>
+        <v>5.50322793142225</v>
       </c>
       <c r="C14" t="n">
         <v>5.043583866570233</v>
@@ -10297,7 +10305,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.298530398061552</v>
+        <v>5.869652455162565</v>
       </c>
       <c r="C15" t="n">
         <v>54.6030266021542</v>
@@ -10308,7 +10316,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.054684784741039</v>
+        <v>4.523558835862182</v>
       </c>
       <c r="C16" t="n">
         <v>6.763146356503209</v>
@@ -10319,7 +10327,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.877645668160429</v>
+        <v>7.040727755930213</v>
       </c>
       <c r="C17" t="n">
         <v>4.641253333897146</v>
@@ -10330,7 +10338,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3.055200396625811</v>
+        <v>6.986156466509776</v>
       </c>
       <c r="C18" t="n">
         <v>7.191074027373915</v>
@@ -10341,7 +10349,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0795090929639</v>
+        <v>4.270080337806909</v>
       </c>
       <c r="C19" t="n">
         <v>5.042626535576084</v>
@@ -10352,7 +10360,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.776435859196533</v>
+        <v>5.974482364222347</v>
       </c>
       <c r="C20" t="n">
         <v>7.757705677837786</v>
@@ -10363,7 +10371,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.520477215705273</v>
+        <v>4.482178293646684</v>
       </c>
       <c r="C21" t="n">
         <v>4.733008412065169</v>
@@ -10374,7 +10382,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4.577925221464923</v>
+        <v>6.621178238128757</v>
       </c>
       <c r="C22" t="n">
         <v>4.487739723950136</v>
@@ -10385,7 +10393,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2.506340211121888</v>
+        <v>4.574097321392869</v>
       </c>
       <c r="C23" t="n">
         <v>3.952478330355771</v>
@@ -10396,7 +10404,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4.280564744577164</v>
+        <v>6.26642861111729</v>
       </c>
       <c r="C24" t="n">
         <v>5.798528210083958</v>
@@ -10407,7 +10415,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5.826993296271328</v>
+        <v>9.343605815349481</v>
       </c>
       <c r="C25" t="n">
         <v>5.403529277617979</v>
@@ -10418,7 +10426,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4.585625329529153</v>
+        <v>6.405589721561027</v>
       </c>
       <c r="C26" t="n">
         <v>6.005393962704999</v>
@@ -10429,7 +10437,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.034265002757347</v>
+        <v>8.146141030210563</v>
       </c>
       <c r="C27" t="n">
         <v>6.436182448838896</v>
@@ -10476,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.128096800377851</v>
+        <v>10.50233444017133</v>
       </c>
       <c r="C2" t="n">
         <v>7.434632136647389</v>
@@ -10487,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.509000157888387</v>
+        <v>8.259713881804752</v>
       </c>
       <c r="C3" t="n">
         <v>5.708018084767884</v>
@@ -10498,7 +10506,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.997933969498991</v>
+        <v>10.41491433921757</v>
       </c>
       <c r="C4" t="n">
         <v>5.359630755802396</v>
@@ -10509,7 +10517,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.892303259378571</v>
+        <v>13.44468845630849</v>
       </c>
       <c r="C5" t="n">
         <v>6.481059390826099</v>
@@ -10520,7 +10528,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.863635912229507</v>
+        <v>6.249627147574421</v>
       </c>
       <c r="C6" t="n">
         <v>6.084318104754973</v>
@@ -10531,7 +10539,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.330459849422856</v>
+        <v>14.60926563975475</v>
       </c>
       <c r="C7" t="n">
         <v>4.207688516698877</v>
@@ -10542,7 +10550,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.231180329977119</v>
+        <v>6.312014420189315</v>
       </c>
       <c r="C8" t="n">
         <v>4.752765182889591</v>
@@ -10553,7 +10561,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.94135997230435</v>
+        <v>10.50104146928099</v>
       </c>
       <c r="C9" t="n">
         <v>4.568041337815236</v>
@@ -10564,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.646764021733479</v>
+        <v>13.2060975706393</v>
       </c>
       <c r="C10" t="n">
         <v>5.789129556744797</v>
@@ -10575,7 +10583,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.530684333871142</v>
+        <v>6.437724557569883</v>
       </c>
       <c r="C11" t="n">
         <v>3.50290877894351</v>
@@ -10586,7 +10594,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.820808026815616</v>
+        <v>9.451460648361707</v>
       </c>
       <c r="C12" t="n">
         <v>5.184880104335302</v>
@@ -10597,7 +10605,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6.427527050851627</v>
+        <v>16.60043780574521</v>
       </c>
       <c r="C13" t="n">
         <v>7.430940304510561</v>
@@ -10608,7 +10616,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.64515062115989</v>
+        <v>8.210647706929851</v>
       </c>
       <c r="C14" t="n">
         <v>11.23076216057287</v>
@@ -10619,7 +10627,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.877061564522521</v>
+        <v>13.75982796483034</v>
       </c>
       <c r="C15" t="n">
         <v>7.709239154915333</v>
@@ -10630,7 +10638,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3.954176645050824</v>
+        <v>10.75527310168848</v>
       </c>
       <c r="C16" t="n">
         <v>22.20132726391236</v>
@@ -10641,7 +10649,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>3.906363825388339</v>
+        <v>7.941157503334066</v>
       </c>
       <c r="C17" t="n">
         <v>5.295655250859226</v>
@@ -10652,7 +10660,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11.58920881635097</v>
+        <v>30.82126878697501</v>
       </c>
       <c r="C18" t="n">
         <v>7.226250098111377</v>
@@ -10663,7 +10671,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4.569268349222796</v>
+        <v>10.18153481817799</v>
       </c>
       <c r="C19" t="n">
         <v>3.429027017951487</v>
@@ -10674,7 +10682,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4.830449103887688</v>
+        <v>10.37358102521029</v>
       </c>
       <c r="C20" t="n">
         <v>8.004561574581368</v>
@@ -10685,7 +10693,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3.46369603545347</v>
+        <v>7.18800980895806</v>
       </c>
       <c r="C21" t="n">
         <v>5.736437729902752</v>
@@ -10696,7 +10704,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.661618613589671</v>
+        <v>7.504233980954124</v>
       </c>
       <c r="C22" t="n">
         <v>5.035785441072916</v>
@@ -10707,7 +10715,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>3.288879660499437</v>
+        <v>9.617586213032338</v>
       </c>
       <c r="C23" t="n">
         <v>7.20024424269437</v>
@@ -10718,7 +10726,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.412201650183276</v>
+        <v>7.633031351817377</v>
       </c>
       <c r="C24" t="n">
         <v>6.858586914314085</v>
@@ -10729,7 +10737,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.555866062684638</v>
+        <v>10.0540875218516</v>
       </c>
       <c r="C25" t="n">
         <v>6.784704588343769</v>
@@ -10740,7 +10748,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5.023706676222154</v>
+        <v>10.91851797468983</v>
       </c>
       <c r="C26" t="n">
         <v>5.218267762792102</v>
@@ -10751,7 +10759,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2.936139585409159</v>
+        <v>12.20410173456986</v>
       </c>
       <c r="C27" t="n">
         <v>5.055125862664654</v>
@@ -10798,7 +10806,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4905155441003657</v>
+        <v>1.024413003665146</v>
       </c>
       <c r="C2" t="n">
         <v>3.195477137013393</v>
@@ -10809,7 +10817,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4590075075174176</v>
+        <v>1.931608733521717</v>
       </c>
       <c r="C3" t="n">
         <v>2.57996852478606</v>
@@ -10820,7 +10828,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7800832170758791</v>
+        <v>1.447826999936892</v>
       </c>
       <c r="C4" t="n">
         <v>2.713244390692129</v>
@@ -10831,7 +10839,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7581995301196098</v>
+        <v>1.215080593467125</v>
       </c>
       <c r="C5" t="n">
         <v>2.025653695736551</v>
@@ -10842,7 +10850,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4862193340082513</v>
+        <v>1.078371399810699</v>
       </c>
       <c r="C6" t="n">
         <v>9.422461654704595</v>
@@ -10853,7 +10861,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4781121361265052</v>
+        <v>1.011745756537548</v>
       </c>
       <c r="C7" t="n">
         <v>3.515016373665417</v>
@@ -10864,7 +10872,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5532144149521608</v>
+        <v>1.238813626928515</v>
       </c>
       <c r="C8" t="n">
         <v>1.94354610101465</v>
@@ -10875,7 +10883,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7462331871748158</v>
+        <v>1.910421275283285</v>
       </c>
       <c r="C9" t="n">
         <v>3.511241627231714</v>
@@ -10886,7 +10894,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6473974880846936</v>
+        <v>2.241529718553456</v>
       </c>
       <c r="C10" t="n">
         <v>5.954574372840647</v>
@@ -10897,7 +10905,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3928834329447403</v>
+        <v>2.759069848070144</v>
       </c>
       <c r="C11" t="n">
         <v>4.623570880021537</v>
@@ -10908,7 +10916,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9987602401614627</v>
+        <v>5.992716608823736</v>
       </c>
       <c r="C12" t="n">
         <v>2.943448946933249</v>
@@ -10919,7 +10927,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7510801093520606</v>
+        <v>1.278799301402066</v>
       </c>
       <c r="C13" t="n">
         <v>2.713456236511838</v>
@@ -10930,7 +10938,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.186749294480532</v>
+        <v>4.639977872191404</v>
       </c>
       <c r="C14" t="n">
         <v>3.25547093477386</v>
@@ -10941,7 +10949,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.110112395578751</v>
+        <v>26.08610087105668</v>
       </c>
       <c r="C15" t="n">
         <v>5.367622848914923</v>
@@ -10952,7 +10960,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.422735753360241</v>
+        <v>11.28916861176895</v>
       </c>
       <c r="C16" t="n">
         <v>3.66655627311538</v>
@@ -10963,7 +10971,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6259605150500671</v>
+        <v>1.058580407079935</v>
       </c>
       <c r="C17" t="n">
         <v>3.599314100888181</v>
@@ -10974,7 +10982,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.633659015699644</v>
+        <v>1.626807541117884</v>
       </c>
       <c r="C18" t="n">
         <v>3.557851457188749</v>
@@ -10985,7 +10993,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6498840671227737</v>
+        <v>1.207409867001564</v>
       </c>
       <c r="C19" t="n">
         <v>4.630735457125461</v>
@@ -10996,7 +11004,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.405384180804401</v>
+        <v>2.568730586964569</v>
       </c>
       <c r="C20" t="n">
         <v>3.529868848035077</v>
@@ -11007,7 +11015,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.154493568485614</v>
+        <v>1.973967537494437</v>
       </c>
       <c r="C21" t="n">
         <v>7.326756542052024</v>
@@ -11018,7 +11026,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8774852927369935</v>
+        <v>1.432878034663153</v>
       </c>
       <c r="C22" t="n">
         <v>2.980024779006798</v>
@@ -11029,7 +11037,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.346130083113991</v>
+        <v>2.208764863642697</v>
       </c>
       <c r="C23" t="n">
         <v>2.896894983595597</v>
@@ -11040,7 +11048,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7193759230950468</v>
+        <v>1.57541883888847</v>
       </c>
       <c r="C24" t="n">
         <v>1.993716611143602</v>
@@ -11051,7 +11059,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.693688225210504</v>
+        <v>1.758505003781568</v>
       </c>
       <c r="C25" t="n">
         <v>2.765171965264457</v>
@@ -11062,7 +11070,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.953044524253567</v>
+        <v>7.13575471646377</v>
       </c>
       <c r="C26" t="n">
         <v>3.328298687202063</v>
@@ -11073,7 +11081,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9365324941955699</v>
+        <v>3.743279303333047</v>
       </c>
       <c r="C27" t="n">
         <v>6.656316136187217</v>
@@ -11442,6 +11450,2582 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>4.499138460868179</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.203488305097147</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.439916696008233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.021324541528617</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.9744768679379</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.231820139386565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.458049322179469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.198513558266553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.363672374195362</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.693447091925613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.741932301217624</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.615925999079707</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.271925719658122</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.172957355984226</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.410778386041542</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.015508656364315</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.51916728175033</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.53016903163913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.38826968036285</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.244135439416616</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.55670036482</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.989937522547487</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.953123240300352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.247515797211392</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.033568417422973</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.959010460571291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.20350336367295</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.84949476263794</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.23289569063187</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.680489661650918</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.943370172675916</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.252916094583876</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.58775973192581</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.44903818769055</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.825058210861105</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.582246677865601</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.272669810971339</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.787802880148036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.91613292804368</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.290441084610213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.263271142268441</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.480530949113033</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.933521284490232</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.449771693953679</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.644519357858452</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.973373661587604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.624860292978819</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.298194746117234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.417266975611983</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.667087798522831</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.278338603905802</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.894877592749126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.073143003794682</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.661405187154632</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9937303213024643</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.305383762855466</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7237731468748578</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.161161903266222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8543256933910298</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.974115803836744</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7708074094533216</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.029951751248475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.093642391811436</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.71143879743679</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.132258152053981</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.129542746307148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7579331549912425</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.223373661587605</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6265336603578282</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.756655998095146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8664639762874798</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.135376473276823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.357411676292846</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.503816254644115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.493523802533175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.316430100951395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.799503158849921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.892571182745892</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.793813517640922</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.836315796814483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.275491655257048</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.973195861880174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.10671745038472</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.963332060814538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.380228910434497</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.535831834816744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8966003637583446</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.354018612610057</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.120087976106304</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.314125627168413</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.251774935494705</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.15096187101893</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.589180326486332</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.523855392059848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.027944371981474</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.687932102814862</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.237545285126425</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.774468576724275</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.032809470801039</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.817083020297849</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.425679529999557</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25.48884455241141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9670924839653617</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.745695322571366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.111078408737197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.332565527160187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.230186595572438</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.625951831203206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.352279432260204</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.470589731528373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.993049239153728</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.061625864249676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.099111105941877</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.021709069690647</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.790833348288354</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.347671425955612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.039821078763305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.475931220423726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.637891411604901</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.966554632630043</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.849055354018327</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.077917549719487</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.817607997318652</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.65777798088647</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.428180157863488</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.612352167676764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.649308604476117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.262523900325253</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.845239532351501</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.584877533436976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.388176060773692</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88.11114862453827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.331889818076164</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.534181833160362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.910016903262299</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.009411594342283</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.099989178344884</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.654298357739367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.427406609493265</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.566184305476923</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.10762069985989</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.962745558393171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.869627943143516</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.010129562039461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.097405871813576</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.766846406554777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.461881447783633</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.90075230495355</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.150994175806246</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.790898677675774</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.603226582601618</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.308863786317768</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.551051405657533</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.389364862797025</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.788134627446968</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.542275866840918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.555114745466994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.106259833737668</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.015731053483526</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.781930436614588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.424720538369259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.715393173751153</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.2625186484396</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.665444361502908</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.392647273996136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.22012453004829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.937291214397403</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.895334704020291</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.845162646328007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.070623712803332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.798345357638146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.88548474472881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.273343609496404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.539764345005517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.089670257165284</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.979454913930914</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.133313504477781</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.46359068742833</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.318560063068441</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.353522000753352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.476931069743604</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.445745942117574</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.697729713296829</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.610760176820003</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.19275794375739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.641224257800115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.326076347239154</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.427390133912242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.849881634281879</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.022787185227954</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.766837766055572</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.184279024387092</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.703107412548869</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.365427083929553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.51892278274408</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.572026709883881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.295859543673238</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.196175553689988</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.749209217208264</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.536583902380079</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.58947771245323</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.970010199849617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.691434177714874</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.130769753982025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.956961350716626</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.343792213694913</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.146429289565241</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.452217714237724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.966072713377766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.15196022544559</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.158200705609652</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.695318142975449</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.333488012734682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.870499876478791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.726959405752832</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.531255060593095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.425039872726944</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.393662953883004</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.536317931813882</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.347437626026061</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.091025169531866</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.046123603887768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.712093427194965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.22593155979649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.613683751039471</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.59718372729396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.519935784432708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.035154675121973</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.699416730481694</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.138854711575957</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.129160501076944</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.063850237549405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.685244129073737</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.139625818145402</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.479741588185119</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.297050914567424</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.272450767886277</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.939745325021628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.403799844494934</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.341386905855952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.569005717331097</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.448763058539057</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.655519880717944</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.427310945460859</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.255248133251557</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.957830028796306</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.433087176054223</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.37319866933717</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.393640718102811</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.352487371453834</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.524079030418678</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.921643003221708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.808679059581161</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.600652579973731</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.873152522234976</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.789606244541972</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.96703881428301</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.867368186153441</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.163238989161522</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.310153990589992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.801807022419068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.20264011817934</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.815699068971323</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.708177782272859</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.050300422862705</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.332261164327027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.621739059168093</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.158252724007539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.742503007075013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.380176319587429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.701002607082315</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.171906288124414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.788342692334751</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.881910606489528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.284900323123679</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.899803799684279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.757468424944588</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.466871222706747</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.27756315968925</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.51218227318995</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.230105874168204</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.816361756305829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.916276374366471</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.409494810866622</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.605856434353415</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.043583866570233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.298530398061552</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54.6030266021542</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.054684784741039</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.763146356503209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.877645668160429</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.641253333897146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.055200396625811</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.191074027373915</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.0795090929639</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.042626535576084</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.776435859196533</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.757705677837786</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.520477215705273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.733008412065169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.577925221464923</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.487739723950136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.506340211121888</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.952478330355771</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.280564744577164</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.798528210083958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.826993296271328</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.403529277617979</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.585625329529153</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.005393962704999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.034265002757347</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.436182448838896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.128096800377851</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.434632136647389</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.509000157888387</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.708018084767884</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.997933969498991</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.359630755802396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.892303259378571</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.481059390826099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.863635912229507</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.084318104754973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.330459849422856</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.207688516698877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.231180329977119</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.752765182889591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.94135997230435</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.568041337815236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.646764021733479</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.789129556744797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.530684333871142</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.50290877894351</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.820808026815616</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.184880104335302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.427527050851627</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.430940304510561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.64515062115989</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.23076216057287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.877061564522521</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.709239154915333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.954176645050824</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.20132726391236</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.906363825388339</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.295655250859226</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.58920881635097</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.226250098111377</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.569268349222796</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.429027017951487</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.830449103887688</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.004561574581368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.46369603545347</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.736437729902752</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.661618613589671</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.035785441072916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.288879660499437</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.20024424269437</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.412201650183276</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.858586914314085</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.555866062684638</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.784704588343769</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.023706676222154</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.218267762792102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.936139585409159</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.055125862664654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4905155441003657</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.195477137013393</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4590075075174176</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.57996852478606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7800832170758791</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.713244390692129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7581995301196098</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.025653695736551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4862193340082513</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.422461654704595</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4781121361265052</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.515016373665417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5532144149521608</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.94354610101465</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7462331871748158</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.511241627231714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6473974880846936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.954574372840647</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3928834329447403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.623570880021537</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9987602401614627</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.943448946933249</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7510801093520606</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.713456236511838</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.186749294480532</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.25547093477386</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.110112395578751</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.367622848914923</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.422735753360241</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.66655627311538</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6259605150500671</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.599314100888181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.633659015699644</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.557851457188749</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6498840671227737</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.630735457125461</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.405384180804401</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.529868848035077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.154493568485614</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.326756542052024</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8774852927369935</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.980024779006798</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.346130083113991</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.896894983595597</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7193759230950468</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.993716611143602</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.693688225210504</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.765171965264457</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.953044524253567</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.328298687202063</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9365324941955699</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.656316136187217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Participant</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SIT6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Scaled HOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.001078536299463</v>
       </c>
       <c r="C2" t="n">
